--- a/sample_status.xlsx
+++ b/sample_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zabdi/Documents/GitHub/fellowship-of-the-growth-rings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE92DAA8-BB55-3540-915D-A706E7989639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F825D87F-C808-FC4F-96A1-D1576CE7EC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="3" xr2:uid="{9440439D-72F5-B441-976E-5500384619B7}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{9440439D-72F5-B441-976E-5500384619B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="23">
   <si>
     <t>SITE</t>
   </si>
@@ -100,6 +100,15 @@
   <si>
     <t>total</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
 </sst>
 </file>
 
@@ -141,13 +150,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -156,7 +168,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -244,6 +256,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -579,9 +621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26849EF7-B10C-1B40-A287-E6A20CFDF58E}">
   <dimension ref="A1:F569"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,22 +637,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2103,6 +2145,24 @@
       </c>
       <c r="F111" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D112" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" s="2">
+        <f>SUM(E2:E111)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D113" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" s="2">
+        <f>110-E112</f>
+        <v>29</v>
       </c>
     </row>
     <row r="569" spans="4:6" x14ac:dyDescent="0.2">
@@ -2141,10 +2201,10 @@
     <mergeCell ref="B2:B22"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E111">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2154,31 +2214,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B8BA3A-B3B9-D349-9807-AF47BAC6C8D8}">
-  <dimension ref="A1:F206"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="F207" sqref="E207:F209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4848,6 +4908,43 @@
       </c>
       <c r="F206" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D207" t="s">
+        <v>22</v>
+      </c>
+      <c r="E207" s="3">
+        <f>SUM(E2:E206)</f>
+        <v>55</v>
+      </c>
+      <c r="F207" s="3">
+        <f>SUM(F2:F206)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D208" t="s">
+        <v>21</v>
+      </c>
+      <c r="E208" s="3">
+        <f>E209-E207</f>
+        <v>150</v>
+      </c>
+      <c r="F208" s="3">
+        <f>F209-F207</f>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="209" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D209" t="s">
+        <v>19</v>
+      </c>
+      <c r="E209" s="3">
+        <v>205</v>
+      </c>
+      <c r="F209" s="3">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4903,10 +5000,18 @@
     <mergeCell ref="C203:C206"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E206">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F206 F209">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4918,29 +5023,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21D1B7D-9203-0A4B-BCF3-91ED701E39E0}">
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6454,10 +6559,10 @@
     <mergeCell ref="C42:C45"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E110">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6469,29 +6574,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22AE6DC-FDE9-0640-9C1E-562AC01C9AB6}">
   <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8469,10 +8580,10 @@
     <mergeCell ref="C30:C34"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E144">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/sample_status.xlsx
+++ b/sample_status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zabdi/Documents/GitHub/fellowship-of-the-growth-rings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BB57F8-4FD3-854E-89A4-93FCBA3077E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238FD149-F0AC-D648-8752-BD7585FB59A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="1060" windowWidth="28040" windowHeight="16940" xr2:uid="{9440439D-72F5-B441-976E-5500384619B7}"/>
+    <workbookView xWindow="760" yWindow="1060" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{9440439D-72F5-B441-976E-5500384619B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="26">
   <si>
     <t>SITE</t>
   </si>
@@ -123,6 +123,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -159,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -170,11 +173,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,9 +599,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26849EF7-B10C-1B40-A287-E6A20CFDF58E}">
   <dimension ref="A1:G569"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -629,13 +635,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1">
@@ -649,9 +655,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1">
         <v>2</v>
       </c>
@@ -663,9 +669,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="1">
         <v>3</v>
       </c>
@@ -677,9 +683,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="1">
         <v>4</v>
       </c>
@@ -691,9 +697,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="1">
         <v>5</v>
       </c>
@@ -705,9 +711,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="1">
         <v>6</v>
       </c>
@@ -719,9 +725,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="1">
         <v>7</v>
       </c>
@@ -733,9 +739,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="1">
         <v>8</v>
       </c>
@@ -747,9 +753,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="1">
         <v>9</v>
       </c>
@@ -761,9 +767,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1">
@@ -777,9 +783,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="1">
         <v>2</v>
       </c>
@@ -791,9 +797,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="1">
         <v>3</v>
       </c>
@@ -805,9 +811,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="1">
         <v>4</v>
       </c>
@@ -819,9 +825,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="1">
         <v>5</v>
       </c>
@@ -836,9 +842,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="1">
         <v>6</v>
       </c>
@@ -850,9 +856,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1">
@@ -866,9 +872,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="1">
         <v>2</v>
       </c>
@@ -880,9 +886,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="1">
         <v>3</v>
       </c>
@@ -894,9 +900,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="1">
         <v>4</v>
       </c>
@@ -908,9 +914,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="1">
         <v>5</v>
       </c>
@@ -922,9 +928,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="1">
         <v>6</v>
       </c>
@@ -936,11 +942,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5">
         <v>2</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1">
@@ -954,9 +960,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="1">
         <v>2</v>
       </c>
@@ -968,9 +974,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="1">
         <v>3</v>
       </c>
@@ -982,9 +988,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="1">
         <v>4</v>
       </c>
@@ -996,9 +1002,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="1">
@@ -1012,9 +1018,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="1">
         <v>1</v>
       </c>
@@ -1026,9 +1032,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="1">
         <v>2</v>
       </c>
@@ -1040,9 +1046,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="1">
         <v>3</v>
       </c>
@@ -1054,9 +1060,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="1">
         <v>4</v>
       </c>
@@ -1068,9 +1074,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="1">
         <v>5</v>
       </c>
@@ -1082,9 +1088,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="1">
         <v>6</v>
       </c>
@@ -1096,9 +1102,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="1">
         <v>7</v>
       </c>
@@ -1110,9 +1116,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="1">
         <v>8</v>
       </c>
@@ -1124,9 +1130,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="1">
         <v>9</v>
       </c>
@@ -1141,9 +1147,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="1">
         <v>10</v>
       </c>
@@ -1155,9 +1161,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="1">
         <v>11</v>
       </c>
@@ -1169,9 +1175,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="1">
         <v>12</v>
       </c>
@@ -1186,9 +1192,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="1">
         <v>13</v>
       </c>
@@ -1203,9 +1209,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="1">
         <v>14</v>
       </c>
@@ -1220,9 +1226,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="1">
         <v>15</v>
       </c>
@@ -1237,9 +1243,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="1">
         <v>16</v>
       </c>
@@ -1251,9 +1257,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="1">
         <v>17</v>
       </c>
@@ -1265,9 +1271,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="1">
         <v>18</v>
       </c>
@@ -1279,9 +1285,9 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
       <c r="D46" s="1">
         <v>19</v>
       </c>
@@ -1296,9 +1302,9 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
       <c r="D47" s="1">
         <v>20</v>
       </c>
@@ -1310,9 +1316,9 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4" t="s">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="1">
@@ -1326,9 +1332,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
       <c r="D49" s="1">
         <v>2</v>
       </c>
@@ -1340,9 +1346,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="1">
         <v>3</v>
       </c>
@@ -1354,9 +1360,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
       <c r="D51" s="1">
         <v>4</v>
       </c>
@@ -1368,9 +1374,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="1">
         <v>5</v>
       </c>
@@ -1382,9 +1388,9 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
       <c r="D53" s="1">
         <v>6</v>
       </c>
@@ -1396,9 +1402,9 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
       <c r="D54" s="1">
         <v>7</v>
       </c>
@@ -1410,9 +1416,9 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="1">
         <v>8</v>
       </c>
@@ -1424,9 +1430,9 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4" t="s">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="1">
@@ -1440,9 +1446,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
       <c r="D57" s="1">
         <v>2</v>
       </c>
@@ -1457,9 +1463,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
       <c r="D58" s="1">
         <v>3</v>
       </c>
@@ -1471,9 +1477,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
       <c r="D59" s="1">
         <v>4</v>
       </c>
@@ -1485,9 +1491,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="1">
         <v>5</v>
       </c>
@@ -1499,9 +1505,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
       <c r="D61" s="1">
         <v>6</v>
       </c>
@@ -1513,9 +1519,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
       <c r="D62" s="1">
         <v>7</v>
       </c>
@@ -1527,9 +1533,9 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
       <c r="D63" s="1">
         <v>8</v>
       </c>
@@ -1541,9 +1547,9 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
       <c r="D64" s="1">
         <v>9</v>
       </c>
@@ -1558,9 +1564,9 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
       <c r="D65" s="1">
         <v>10</v>
       </c>
@@ -1572,9 +1578,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="1">
         <v>11</v>
       </c>
@@ -1586,9 +1592,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
       <c r="D67" s="1">
         <v>12</v>
       </c>
@@ -1600,9 +1606,9 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="1">
         <v>13</v>
       </c>
@@ -1617,9 +1623,9 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="1">
         <v>14</v>
       </c>
@@ -1631,9 +1637,9 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4" t="s">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D70" s="1">
@@ -1647,9 +1653,9 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="1">
         <v>2</v>
       </c>
@@ -1661,9 +1667,9 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="1">
         <v>3</v>
       </c>
@@ -1675,9 +1681,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="1">
         <v>4</v>
       </c>
@@ -1689,11 +1695,11 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5">
         <v>3</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="1">
@@ -1707,9 +1713,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
       <c r="D75" s="1">
         <v>2</v>
       </c>
@@ -1721,9 +1727,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
       <c r="D76" s="1">
         <v>3</v>
       </c>
@@ -1735,9 +1741,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
       <c r="D77" s="1">
         <v>4</v>
       </c>
@@ -1749,9 +1755,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4" t="s">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="1">
@@ -1765,9 +1771,9 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
       <c r="D79" s="1">
         <v>2</v>
       </c>
@@ -1779,9 +1785,9 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="1">
         <v>3</v>
       </c>
@@ -1793,9 +1799,9 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
       <c r="D81" s="1">
         <v>4</v>
       </c>
@@ -1807,9 +1813,9 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
       <c r="D82" s="1">
         <v>5</v>
       </c>
@@ -1821,9 +1827,9 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
       <c r="D83" s="1">
         <v>6</v>
       </c>
@@ -1835,9 +1841,9 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4" t="s">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D84" s="1">
@@ -1851,9 +1857,9 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
       <c r="D85" s="1">
         <v>2</v>
       </c>
@@ -1865,9 +1871,9 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
       <c r="D86" s="1">
         <v>3</v>
       </c>
@@ -1879,9 +1885,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
       <c r="D87" s="1">
         <v>4</v>
       </c>
@@ -1893,9 +1899,9 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
       <c r="D88" s="1">
         <v>5</v>
       </c>
@@ -1907,9 +1913,9 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
       <c r="D89" s="1">
         <v>6</v>
       </c>
@@ -1921,9 +1927,9 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4" t="s">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D90" s="1">
@@ -1937,9 +1943,9 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
       <c r="D91" s="1">
         <v>2</v>
       </c>
@@ -1951,9 +1957,9 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="1">
         <v>3</v>
       </c>
@@ -1965,9 +1971,9 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
       <c r="D93" s="1">
         <v>4</v>
       </c>
@@ -1979,9 +1985,9 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
       <c r="D94" s="1">
         <v>5</v>
       </c>
@@ -1993,9 +1999,9 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
       <c r="D95" s="1">
         <v>6</v>
       </c>
@@ -2007,9 +2013,9 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4" t="s">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="1">
@@ -2023,9 +2029,9 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
       <c r="D97" s="1">
         <v>2</v>
       </c>
@@ -2037,9 +2043,9 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
       <c r="D98" s="1">
         <v>3</v>
       </c>
@@ -2051,9 +2057,9 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
       <c r="D99" s="1">
         <v>4</v>
       </c>
@@ -2065,9 +2071,9 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
       <c r="D100" s="1">
         <v>5</v>
       </c>
@@ -2079,9 +2085,9 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4" t="s">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="1">
@@ -2095,9 +2101,9 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
       <c r="D102" s="1">
         <v>2</v>
       </c>
@@ -2109,9 +2115,9 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
       <c r="D103" s="1">
         <v>3</v>
       </c>
@@ -2123,9 +2129,9 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
       <c r="D104" s="1">
         <v>4</v>
       </c>
@@ -2137,9 +2143,9 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
       <c r="D105" s="1">
         <v>5</v>
       </c>
@@ -2151,9 +2157,9 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4" t="s">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D106" s="1">
@@ -2167,9 +2173,9 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
       <c r="D107" s="1">
         <v>2</v>
       </c>
@@ -2181,9 +2187,9 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
       <c r="D108" s="1">
         <v>3</v>
       </c>
@@ -2195,9 +2201,9 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
       <c r="D109" s="1">
         <v>4</v>
       </c>
@@ -2209,9 +2215,9 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
       <c r="D110" s="1">
         <v>5</v>
       </c>
@@ -2223,9 +2229,9 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
       <c r="D111" s="1">
         <v>6</v>
       </c>
@@ -2244,7 +2250,7 @@
         <f>SUM(E2:E111)</f>
         <v>93</v>
       </c>
-      <c r="F112" s="5">
+      <c r="F112" s="4">
         <f>(E112/E114)*100</f>
         <v>84.545454545454547</v>
       </c>
@@ -2257,7 +2263,7 @@
         <f>110-E112</f>
         <v>17</v>
       </c>
-      <c r="F113" s="5">
+      <c r="F113" s="4">
         <f>(E113/E114)*100</f>
         <v>15.454545454545453</v>
       </c>
@@ -2286,6 +2292,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C56:C69"/>
+    <mergeCell ref="C48:C55"/>
+    <mergeCell ref="C27:C47"/>
     <mergeCell ref="C78:C83"/>
     <mergeCell ref="A2:A111"/>
     <mergeCell ref="B74:B111"/>
@@ -2302,9 +2311,6 @@
     <mergeCell ref="B23:B73"/>
     <mergeCell ref="C74:C77"/>
     <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C56:C69"/>
-    <mergeCell ref="C48:C55"/>
-    <mergeCell ref="C27:C47"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E111">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
@@ -2320,13 +2326,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B8BA3A-B3B9-D349-9807-AF47BAC6C8D8}">
-  <dimension ref="A1:F209"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="F207" sqref="E207:F209"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -2349,13 +2358,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1">
@@ -2369,9 +2378,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1">
         <v>2</v>
       </c>
@@ -2383,9 +2392,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="1">
         <v>3</v>
       </c>
@@ -2397,9 +2406,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="1">
         <v>4</v>
       </c>
@@ -2411,9 +2420,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="1">
         <v>5</v>
       </c>
@@ -2425,9 +2434,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1">
@@ -2441,9 +2450,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="1">
         <v>2</v>
       </c>
@@ -2455,9 +2464,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="1">
         <v>3</v>
       </c>
@@ -2469,9 +2478,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="1">
         <v>4</v>
       </c>
@@ -2483,9 +2492,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1">
@@ -2499,9 +2508,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="1">
         <v>2</v>
       </c>
@@ -2513,9 +2522,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="1">
         <v>3</v>
       </c>
@@ -2527,9 +2536,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="1">
         <v>4</v>
       </c>
@@ -2541,9 +2550,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="1">
         <v>5</v>
       </c>
@@ -2555,9 +2564,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="1">
@@ -2571,9 +2580,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="1">
         <v>2</v>
       </c>
@@ -2585,9 +2594,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="1">
         <v>3</v>
       </c>
@@ -2599,9 +2608,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="1">
         <v>4</v>
       </c>
@@ -2613,61 +2622,69 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4">
-        <v>2</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="1">
         <v>3</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="1">
         <v>4</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="1">
@@ -2681,2431 +2698,1287 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="1">
         <v>2</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="1">
         <v>3</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="1">
         <v>4</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
       <c r="F27" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="1">
         <v>5</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="1">
         <v>6</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="1">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="1">
         <v>8</v>
       </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="1">
         <v>2</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="1">
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="1">
         <v>3</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="1">
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="1">
         <v>4</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4">
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="1">
         <v>3</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="1">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="1">
         <v>6</v>
       </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="1">
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="1">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="1">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="1">
         <v>2</v>
       </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="1">
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="1">
         <v>3</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="1">
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="1">
         <v>4</v>
       </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="1">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="1">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="1">
+        <v>4</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="1">
+        <v>5</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="1">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="1">
-        <v>2</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="1">
-        <v>3</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="1">
-        <v>4</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="1">
-        <v>5</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="1">
-        <v>6</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="1">
-        <v>7</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="1">
-        <v>8</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="1">
-        <v>2</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="1">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="1">
-        <v>4</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4">
-        <v>4</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="1">
-        <v>2</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="1">
-        <v>3</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="1">
-        <v>4</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="1">
-        <v>2</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="1">
-        <v>3</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="1">
-        <v>4</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="D58" s="1">
         <v>1</v>
       </c>
-      <c r="E58" s="1"/>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
       <c r="F58" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
       <c r="D59" s="1">
         <v>2</v>
       </c>
-      <c r="E59" s="1"/>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
       <c r="F59" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="1">
         <v>3</v>
       </c>
-      <c r="E60" s="1"/>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
       <c r="F60" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
       <c r="D61" s="1">
         <v>4</v>
       </c>
-      <c r="E61" s="1"/>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
       <c r="F61" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
       <c r="D62" s="1">
         <v>5</v>
       </c>
-      <c r="E62" s="1"/>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
       <c r="F62" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
       <c r="D63" s="1">
         <v>6</v>
       </c>
-      <c r="E63" s="1"/>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
       <c r="F63" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4" t="s">
-        <v>6</v>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
       </c>
-      <c r="E64" s="1"/>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
       <c r="F64" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
       <c r="D65" s="1">
         <v>2</v>
       </c>
-      <c r="E65" s="1"/>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
       <c r="F65" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="1">
         <v>3</v>
       </c>
-      <c r="E66" s="1"/>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
       <c r="F66" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
       <c r="D67" s="1">
         <v>4</v>
       </c>
-      <c r="E67" s="1"/>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
       <c r="F67" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="1">
         <v>5</v>
       </c>
-      <c r="E68" s="1"/>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
       <c r="F68" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="1">
         <v>6</v>
       </c>
-      <c r="E69" s="1"/>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
       <c r="F69" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4" t="s">
-        <v>7</v>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
       </c>
-      <c r="E70" s="1"/>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
       <c r="F70" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="1">
         <v>2</v>
       </c>
-      <c r="E71" s="1"/>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
       <c r="F71" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="1">
         <v>3</v>
       </c>
-      <c r="E72" s="1"/>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
       <c r="F72" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="1">
         <v>4</v>
       </c>
-      <c r="E73" s="1"/>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
       <c r="F73" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
       <c r="D74" s="1">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
       <c r="F74" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="1">
         <v>2</v>
       </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="1">
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="1">
         <v>3</v>
       </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="1">
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="1">
         <v>4</v>
       </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="1">
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="1">
         <v>5</v>
       </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="1">
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="1">
         <v>6</v>
       </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="1">
-        <v>1</v>
-      </c>
-      <c r="E80" s="1"/>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
       <c r="F80" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="1">
         <v>2</v>
       </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="1">
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="1">
         <v>3</v>
       </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="1">
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="1">
         <v>4</v>
       </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="1">
-        <v>5</v>
-      </c>
-      <c r="E84" s="1"/>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
       <c r="F84" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="1">
-        <v>1</v>
-      </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1">
-        <v>0</v>
+      <c r="A85" s="2"/>
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="2">
+        <f>SUM(E2:E84)</f>
+        <v>55</v>
+      </c>
+      <c r="F85" s="6">
+        <f>(E85/E86)*100</f>
+        <v>66.265060240963862</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="1">
-        <v>2</v>
-      </c>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1">
-        <v>0</v>
-      </c>
+      <c r="A86" s="2"/>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="2">
+        <f>COUNT(E2:E84)</f>
+        <v>83</v>
+      </c>
+      <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="1">
-        <v>3</v>
-      </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1">
-        <v>0</v>
+      <c r="A87" s="2"/>
+      <c r="D87" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" s="2">
+        <f>E86-E85</f>
+        <v>28</v>
+      </c>
+      <c r="F87" s="6">
+        <f>(E87/E86)*100</f>
+        <v>33.734939759036145</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="1">
-        <v>4</v>
-      </c>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1">
-        <v>0</v>
-      </c>
+      <c r="A88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="1">
-        <v>5</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1">
-        <v>0</v>
-      </c>
+      <c r="A89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="1">
-        <v>6</v>
-      </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1">
-        <v>0</v>
-      </c>
+      <c r="A90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="1">
-        <v>7</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1">
-        <v>0</v>
-      </c>
+      <c r="A91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="1">
-        <v>8</v>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1">
-        <v>0</v>
-      </c>
+      <c r="A92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="1">
-        <v>1</v>
-      </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1">
-        <v>0</v>
-      </c>
+      <c r="A93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="1">
-        <v>2</v>
-      </c>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1">
-        <v>0</v>
-      </c>
+      <c r="A94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="1">
-        <v>3</v>
-      </c>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1">
-        <v>0</v>
-      </c>
+      <c r="A95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="1">
-        <v>4</v>
-      </c>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="1">
-        <v>5</v>
-      </c>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="1">
-        <v>6</v>
-      </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4">
-        <v>5</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" s="1">
-        <v>1</v>
-      </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="1">
-        <v>2</v>
-      </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="1">
-        <v>3</v>
-      </c>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="1">
-        <v>4</v>
-      </c>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="1">
-        <v>1</v>
-      </c>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="1">
-        <v>2</v>
-      </c>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="1">
-        <v>3</v>
-      </c>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="1">
-        <v>4</v>
-      </c>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="1">
-        <v>1</v>
-      </c>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="1">
-        <v>2</v>
-      </c>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="1">
-        <v>3</v>
-      </c>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="1">
-        <v>4</v>
-      </c>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="1">
-        <v>5</v>
-      </c>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="1">
-        <v>6</v>
-      </c>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D113" s="1">
-        <v>1</v>
-      </c>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="1">
-        <v>2</v>
-      </c>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="1">
-        <v>3</v>
-      </c>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="1">
-        <v>4</v>
-      </c>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="1">
-        <v>5</v>
-      </c>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4">
-        <v>6</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" s="1">
-        <v>1</v>
-      </c>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="1">
-        <v>2</v>
-      </c>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="1">
-        <v>3</v>
-      </c>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="1">
-        <v>4</v>
-      </c>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="1">
-        <v>1</v>
-      </c>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="1">
-        <v>2</v>
-      </c>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="1">
-        <v>3</v>
-      </c>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="1">
-        <v>4</v>
-      </c>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="1">
-        <v>5</v>
-      </c>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="1">
-        <v>6</v>
-      </c>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" s="1">
-        <v>1</v>
-      </c>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="1">
-        <v>2</v>
-      </c>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="1">
-        <v>3</v>
-      </c>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="1">
-        <v>4</v>
-      </c>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D132" s="1">
-        <v>1</v>
-      </c>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="1">
-        <v>2</v>
-      </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="1">
-        <v>3</v>
-      </c>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="1">
-        <v>4</v>
-      </c>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D136" s="1">
-        <v>1</v>
-      </c>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="1">
-        <v>2</v>
-      </c>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="1">
-        <v>3</v>
-      </c>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="1">
-        <v>4</v>
-      </c>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="1">
-        <v>5</v>
-      </c>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" s="1">
-        <v>1</v>
-      </c>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="1">
-        <v>2</v>
-      </c>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="1">
-        <v>3</v>
-      </c>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="1">
-        <v>4</v>
-      </c>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="1">
-        <v>1</v>
-      </c>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="1">
-        <v>2</v>
-      </c>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="1">
-        <v>3</v>
-      </c>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="1">
-        <v>4</v>
-      </c>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="1">
-        <v>5</v>
-      </c>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D150" s="1">
-        <v>1</v>
-      </c>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="1">
-        <v>2</v>
-      </c>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="1">
-        <v>3</v>
-      </c>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="1">
-        <v>4</v>
-      </c>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D154" s="1">
-        <v>1</v>
-      </c>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="1">
-        <v>2</v>
-      </c>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="1">
-        <v>3</v>
-      </c>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="1">
-        <v>4</v>
-      </c>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4">
-        <v>7</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D158" s="1">
-        <v>1</v>
-      </c>
-      <c r="E158" s="1">
-        <v>1</v>
-      </c>
-      <c r="F158" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="1">
-        <v>2</v>
-      </c>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="1">
-        <v>3</v>
-      </c>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="1">
-        <v>4</v>
-      </c>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="1">
-        <v>5</v>
-      </c>
-      <c r="E162" s="1">
-        <v>1</v>
-      </c>
-      <c r="F162" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="1">
-        <v>6</v>
-      </c>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="1">
-        <v>7</v>
-      </c>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="1">
-        <v>8</v>
-      </c>
-      <c r="E165" s="1">
-        <v>1</v>
-      </c>
-      <c r="F165" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="1">
-        <v>1</v>
-      </c>
-      <c r="E166" s="1">
-        <v>1</v>
-      </c>
-      <c r="F166" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="1">
-        <v>2</v>
-      </c>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="1">
-        <v>3</v>
-      </c>
-      <c r="E168" s="1">
-        <v>1</v>
-      </c>
-      <c r="F168" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="1">
-        <v>4</v>
-      </c>
-      <c r="E169" s="1">
-        <v>1</v>
-      </c>
-      <c r="F169" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="4"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D170" s="1">
-        <v>1</v>
-      </c>
-      <c r="E170" s="1">
-        <v>1</v>
-      </c>
-      <c r="F170" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="1">
-        <v>2</v>
-      </c>
-      <c r="E171" s="1">
-        <v>1</v>
-      </c>
-      <c r="F171" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="4"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="1">
-        <v>3</v>
-      </c>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="1">
-        <v>4</v>
-      </c>
-      <c r="E173" s="1">
-        <v>1</v>
-      </c>
-      <c r="F173" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D174" s="1">
-        <v>1</v>
-      </c>
-      <c r="E174" s="1">
-        <v>1</v>
-      </c>
-      <c r="F174" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="1">
-        <v>2</v>
-      </c>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="1">
-        <v>3</v>
-      </c>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="1">
-        <v>4</v>
-      </c>
-      <c r="E177" s="1">
-        <v>1</v>
-      </c>
-      <c r="F177" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="4"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="1">
-        <v>5</v>
-      </c>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="1">
-        <v>6</v>
-      </c>
-      <c r="E179" s="1">
-        <v>1</v>
-      </c>
-      <c r="F179" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="4"/>
-      <c r="B180" s="4"/>
-      <c r="C180" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D180" s="1">
-        <v>1</v>
-      </c>
-      <c r="E180" s="1">
-        <v>1</v>
-      </c>
-      <c r="F180" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="4"/>
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
-      <c r="D181" s="1">
-        <v>2</v>
-      </c>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="4"/>
-      <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
-      <c r="D182" s="1">
-        <v>3</v>
-      </c>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="4"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="1">
-        <v>4</v>
-      </c>
-      <c r="E183" s="1">
-        <v>1</v>
-      </c>
-      <c r="F183" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="4"/>
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
-      <c r="D184" s="1">
-        <v>5</v>
-      </c>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="4"/>
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="1">
-        <v>6</v>
-      </c>
-      <c r="E185" s="1">
-        <v>1</v>
-      </c>
-      <c r="F185" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="4"/>
-      <c r="B186" s="4"/>
-      <c r="C186" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" s="1">
-        <v>1</v>
-      </c>
-      <c r="E186" s="1">
-        <v>1</v>
-      </c>
-      <c r="F186" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="4"/>
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="1">
-        <v>2</v>
-      </c>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="4"/>
-      <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="1">
-        <v>3</v>
-      </c>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="4"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="1">
-        <v>4</v>
-      </c>
-      <c r="E189" s="1">
-        <v>1</v>
-      </c>
-      <c r="F189" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="4"/>
-      <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
-      <c r="D190" s="1">
-        <v>5</v>
-      </c>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="4"/>
-      <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
-      <c r="D191" s="1">
-        <v>6</v>
-      </c>
-      <c r="E191" s="1">
-        <v>1</v>
-      </c>
-      <c r="F191" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="4"/>
-      <c r="B192" s="4"/>
-      <c r="C192" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="1">
-        <v>1</v>
-      </c>
-      <c r="E192" s="1">
-        <v>1</v>
-      </c>
-      <c r="F192" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="4"/>
-      <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
-      <c r="D193" s="1">
-        <v>2</v>
-      </c>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="4"/>
-      <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="1">
-        <v>3</v>
-      </c>
-      <c r="E194" s="1">
-        <v>1</v>
-      </c>
-      <c r="F194" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="4"/>
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="1">
-        <v>4</v>
-      </c>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="4"/>
-      <c r="B196" s="4"/>
-      <c r="C196" s="4"/>
-      <c r="D196" s="1">
-        <v>5</v>
-      </c>
-      <c r="E196" s="1">
-        <v>1</v>
-      </c>
-      <c r="F196" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="4"/>
-      <c r="B197" s="4"/>
-      <c r="C197" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D197" s="1">
-        <v>1</v>
-      </c>
-      <c r="E197" s="1">
-        <v>1</v>
-      </c>
-      <c r="F197" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="4"/>
-      <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
-      <c r="D198" s="1">
-        <v>2</v>
-      </c>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="4"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
-      <c r="D199" s="1">
-        <v>3</v>
-      </c>
-      <c r="E199" s="1">
-        <v>1</v>
-      </c>
-      <c r="F199" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="4"/>
-      <c r="B200" s="4"/>
-      <c r="C200" s="4"/>
-      <c r="D200" s="1">
-        <v>4</v>
-      </c>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="4"/>
-      <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
-      <c r="D201" s="1">
-        <v>5</v>
-      </c>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="4"/>
-      <c r="B202" s="4"/>
-      <c r="C202" s="4"/>
-      <c r="D202" s="1">
-        <v>6</v>
-      </c>
-      <c r="E202" s="1">
-        <v>1</v>
-      </c>
-      <c r="F202" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="4"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D203" s="1">
-        <v>1</v>
-      </c>
-      <c r="E203" s="1">
-        <v>1</v>
-      </c>
-      <c r="F203" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="4"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
-      <c r="D204" s="1">
-        <v>2</v>
-      </c>
-      <c r="E204" s="1">
-        <v>1</v>
-      </c>
-      <c r="F204" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="4"/>
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="1">
-        <v>3</v>
-      </c>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="4"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="1">
-        <v>4</v>
-      </c>
-      <c r="E206" s="1">
-        <v>1</v>
-      </c>
-      <c r="F206" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D207" t="s">
-        <v>21</v>
-      </c>
-      <c r="E207" s="2">
-        <f>SUM(E2:E206)</f>
-        <v>55</v>
-      </c>
-      <c r="F207" s="2">
-        <f>SUM(F2:F206)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D208" t="s">
-        <v>20</v>
-      </c>
-      <c r="E208" s="2">
-        <f>E209-E207</f>
-        <v>150</v>
-      </c>
-      <c r="F208" s="2">
-        <f>F209-F207</f>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="209" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D209" t="s">
-        <v>19</v>
-      </c>
-      <c r="E209" s="2">
-        <v>205</v>
-      </c>
-      <c r="F209" s="2">
-        <v>205</v>
-      </c>
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="2"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="2"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="2"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="2"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="2"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="2"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="2"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="2"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="2"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="2"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="2"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="2"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="2"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="2"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="2"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="2"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="2"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="2"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="2"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="2"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="2"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="2"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="2"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="2"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="2"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="2"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="2"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="2"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="2"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="2"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="2"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="2"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="2"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="2"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="2"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="2"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="2"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="2"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="2"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="2"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="2"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="2"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="2"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="2"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="2"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="2"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="2"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="2"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="2"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="2"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="2"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="2"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="2"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="2"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="2"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="2"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="2"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="2"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="2"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="2"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="2"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="2"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="2"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="2"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="2"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="2"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="2"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="2"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="2"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="2"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="2"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="2"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="2"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="2"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="2"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="2"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="2"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="2"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="2"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="2"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="2"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="C203:C206"/>
-    <mergeCell ref="C174:C179"/>
-    <mergeCell ref="C180:C185"/>
-    <mergeCell ref="C186:C191"/>
-    <mergeCell ref="C192:C196"/>
-    <mergeCell ref="C197:C202"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="C158:C165"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="C132:C135"/>
-    <mergeCell ref="C136:C140"/>
-    <mergeCell ref="C141:C144"/>
-    <mergeCell ref="C145:C149"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="C107:C112"/>
-    <mergeCell ref="C113:C117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C127"/>
-    <mergeCell ref="C74:C79"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="C85:C92"/>
-    <mergeCell ref="C93:C98"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="C46:C49"/>
+  <mergeCells count="20">
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B20:B35"/>
+    <mergeCell ref="B36:B84"/>
+    <mergeCell ref="A2:A84"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="C11:C15"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C20:C23"/>
-    <mergeCell ref="A2:A206"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="B20:B33"/>
-    <mergeCell ref="B34:B49"/>
-    <mergeCell ref="B50:B98"/>
-    <mergeCell ref="B99:B117"/>
-    <mergeCell ref="B118:B157"/>
-    <mergeCell ref="B158:B206"/>
+    <mergeCell ref="C24:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C75:C80"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:F206 F209">
+  <conditionalFormatting sqref="F87 E2:F84">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -5119,10 +3992,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21D1B7D-9203-0A4B-BCF3-91ED701E39E0}">
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5148,13 +4021,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1">
@@ -5168,69 +4041,79 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="1">
         <v>7</v>
       </c>
@@ -5242,57 +4125,65 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="1">
         <v>8</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="1">
         <v>9</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="1">
         <v>10</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="1">
         <v>11</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="1">
         <v>12</v>
       </c>
@@ -5304,9 +4195,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="1">
@@ -5320,33 +4211,37 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="1">
         <v>4</v>
       </c>
@@ -5358,45 +4253,51 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="1">
         <v>6</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="1">
         <v>7</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="1">
         <v>8</v>
       </c>
@@ -5408,9 +4309,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1">
@@ -5424,33 +4325,37 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="1">
         <v>2</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="1">
         <v>3</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
       <c r="F24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="1">
         <v>4</v>
       </c>
@@ -5462,21 +4367,23 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="1">
         <v>5</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="1">
         <v>6</v>
       </c>
@@ -5488,9 +4395,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="1">
@@ -5504,21 +4411,23 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="1">
         <v>2</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="1">
         <v>3</v>
       </c>
@@ -5530,33 +4439,37 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="1">
         <v>4</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
       <c r="F31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="1">
         <v>5</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="1">
         <v>6</v>
       </c>
@@ -5568,9 +4481,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="1">
@@ -5584,33 +4497,37 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="1">
         <v>2</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
       <c r="F35" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="1">
         <v>3</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="1">
         <v>4</v>
       </c>
@@ -5622,45 +4539,51 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="1">
         <v>5</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
       <c r="F38" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="1">
         <v>6</v>
       </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
       <c r="F39" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="1">
         <v>7</v>
       </c>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
       <c r="F40" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="1">
         <v>8</v>
       </c>
@@ -5672,11 +4595,11 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5">
         <v>2</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="1">
@@ -5690,9 +4613,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="1">
         <v>2</v>
       </c>
@@ -5704,9 +4627,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="1">
         <v>3</v>
       </c>
@@ -5718,9 +4641,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="1">
         <v>4</v>
       </c>
@@ -5732,9 +4655,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4" t="s">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="1">
@@ -5748,21 +4671,23 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
       <c r="D47" s="1">
         <v>3</v>
       </c>
-      <c r="E47" s="1"/>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
       <c r="F47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
       <c r="D48" s="1">
         <v>4</v>
       </c>
@@ -5774,9 +4699,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4" t="s">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="1">
@@ -5790,9 +4715,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="1">
         <v>2</v>
       </c>
@@ -5804,9 +4729,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
       <c r="D51" s="1">
         <v>3</v>
       </c>
@@ -5818,9 +4743,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="1">
         <v>4</v>
       </c>
@@ -5832,9 +4757,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
       <c r="D53" s="1">
         <v>5</v>
       </c>
@@ -5846,9 +4771,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4" t="s">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="1">
@@ -5862,9 +4787,9 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="1">
         <v>2</v>
       </c>
@@ -5876,9 +4801,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="1">
         <v>3</v>
       </c>
@@ -5890,9 +4815,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
       <c r="D57" s="1">
         <v>4</v>
       </c>
@@ -5904,9 +4829,9 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
       <c r="D58" s="1">
         <v>5</v>
       </c>
@@ -5918,9 +4843,9 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4" t="s">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="1">
@@ -5934,9 +4859,9 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="1">
         <v>2</v>
       </c>
@@ -5948,9 +4873,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
       <c r="D61" s="1">
         <v>3</v>
       </c>
@@ -5962,9 +4887,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
       <c r="D62" s="1">
         <v>4</v>
       </c>
@@ -5976,9 +4901,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
       <c r="D63" s="1">
         <v>5</v>
       </c>
@@ -5990,9 +4915,9 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
       <c r="D64" s="1">
         <v>6</v>
       </c>
@@ -6004,9 +4929,9 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
       <c r="D65" s="1">
         <v>7</v>
       </c>
@@ -6018,9 +4943,9 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="1">
         <v>8</v>
       </c>
@@ -6032,9 +4957,9 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4" t="s">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="1">
@@ -6048,9 +4973,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="1">
         <v>2</v>
       </c>
@@ -6062,9 +4987,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="1">
         <v>3</v>
       </c>
@@ -6076,9 +5001,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
       <c r="D70" s="1">
         <v>4</v>
       </c>
@@ -6090,9 +5015,9 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="1">
         <v>5</v>
       </c>
@@ -6104,21 +5029,23 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="1">
         <v>6</v>
       </c>
-      <c r="E72" s="1"/>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
       <c r="F72" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4" t="s">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="1">
@@ -6132,9 +5059,9 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
       <c r="D74" s="1">
         <v>2</v>
       </c>
@@ -6146,9 +5073,9 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
       <c r="D75" s="1">
         <v>3</v>
       </c>
@@ -6160,9 +5087,9 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
       <c r="D76" s="1">
         <v>4</v>
       </c>
@@ -6174,11 +5101,11 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5">
         <v>3</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D77" s="1">
@@ -6192,9 +5119,9 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
       <c r="D78" s="1">
         <v>2</v>
       </c>
@@ -6206,21 +5133,23 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
       <c r="D79" s="1">
         <v>3</v>
       </c>
-      <c r="E79" s="1"/>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
       <c r="F79" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="1">
         <v>4</v>
       </c>
@@ -6232,9 +5161,9 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4" t="s">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D81" s="1">
@@ -6248,45 +5177,51 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
       <c r="D82" s="1">
         <v>2</v>
       </c>
-      <c r="E82" s="1"/>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
       <c r="F82" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
       <c r="D83" s="1">
         <v>3</v>
       </c>
-      <c r="E83" s="1"/>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
       <c r="F83" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
       <c r="D84" s="1">
         <v>4</v>
       </c>
-      <c r="E84" s="1"/>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
       <c r="F84" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
       <c r="D85" s="1">
         <v>5</v>
       </c>
@@ -6298,45 +5233,51 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
       <c r="D86" s="1">
         <v>6</v>
       </c>
-      <c r="E86" s="1"/>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
       <c r="F86" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
       <c r="D87" s="1">
         <v>7</v>
       </c>
-      <c r="E87" s="1"/>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
       <c r="F87" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
       <c r="D88" s="1">
         <v>8</v>
       </c>
-      <c r="E88" s="1"/>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
       <c r="F88" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
       <c r="D89" s="1">
         <v>9</v>
       </c>
@@ -6348,9 +5289,9 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4" t="s">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D90" s="1">
@@ -6364,21 +5305,23 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
       <c r="D91" s="1">
         <v>2</v>
       </c>
-      <c r="E91" s="1"/>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
       <c r="F91" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="1">
         <v>3</v>
       </c>
@@ -6390,45 +5333,51 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
       <c r="D93" s="1">
         <v>4</v>
       </c>
-      <c r="E93" s="1"/>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
       <c r="F93" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
       <c r="D94" s="1">
         <v>5</v>
       </c>
-      <c r="E94" s="1"/>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
       <c r="F94" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
       <c r="D95" s="1">
         <v>6</v>
       </c>
-      <c r="E95" s="1"/>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
       <c r="F95" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
       <c r="D96" s="1">
         <v>7</v>
       </c>
@@ -6440,9 +5389,9 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4" t="s">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="1">
@@ -6456,21 +5405,23 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
       <c r="D98" s="1">
         <v>2</v>
       </c>
-      <c r="E98" s="1"/>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
       <c r="F98" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
       <c r="D99" s="1">
         <v>3</v>
       </c>
@@ -6482,21 +5433,23 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
       <c r="D100" s="1">
         <v>4</v>
       </c>
-      <c r="E100" s="1"/>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
       <c r="F100" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
       <c r="D101" s="1">
         <v>5</v>
       </c>
@@ -6508,9 +5461,9 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4" t="s">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="1">
@@ -6524,21 +5477,23 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
       <c r="D103" s="1">
         <v>2</v>
       </c>
-      <c r="E103" s="1"/>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
       <c r="F103" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
       <c r="D104" s="1">
         <v>3</v>
       </c>
@@ -6550,21 +5505,23 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
       <c r="D105" s="1">
         <v>4</v>
       </c>
-      <c r="E105" s="1"/>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
       <c r="F105" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
       <c r="D106" s="1">
         <v>5</v>
       </c>
@@ -6576,9 +5533,9 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4" t="s">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D107" s="1">
@@ -6592,9 +5549,9 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
       <c r="D108" s="1">
         <v>2</v>
       </c>
@@ -6606,21 +5563,23 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
       <c r="D109" s="1">
         <v>3</v>
       </c>
-      <c r="E109" s="1"/>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
       <c r="F109" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
       <c r="D110" s="1">
         <v>4</v>
       </c>
@@ -6631,8 +5590,49 @@
         <v>0</v>
       </c>
     </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111">
+        <f>SUM(E2:E110)</f>
+        <v>66</v>
+      </c>
+      <c r="F111">
+        <f>(E111/E113)*100</f>
+        <v>60.550458715596335</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112">
+        <f>E113-E111</f>
+        <v>43</v>
+      </c>
+      <c r="F112">
+        <f>(E112/E113)*100</f>
+        <v>39.449541284403672</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113">
+        <f>COUNT(E2:E110)</f>
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C81:C89"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="C97:C101"/>
     <mergeCell ref="B2:B41"/>
     <mergeCell ref="A2:A110"/>
     <mergeCell ref="B42:B76"/>
@@ -6649,12 +5649,6 @@
     <mergeCell ref="C54:C58"/>
     <mergeCell ref="C59:C66"/>
     <mergeCell ref="C67:C72"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C81:C89"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="C102:C106"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E110">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -6670,9 +5664,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22AE6DC-FDE9-0640-9C1E-562AC01C9AB6}">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6705,13 +5701,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1">
@@ -6725,9 +5721,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1">
         <v>2</v>
       </c>
@@ -6739,9 +5735,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="1">
         <v>3</v>
       </c>
@@ -6753,9 +5749,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="1">
         <v>4</v>
       </c>
@@ -6767,9 +5763,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="1">
         <v>5</v>
       </c>
@@ -6781,9 +5777,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="1">
         <v>6</v>
       </c>
@@ -6795,9 +5791,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="1">
         <v>7</v>
       </c>
@@ -6809,9 +5805,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="1">
         <v>8</v>
       </c>
@@ -6823,9 +5819,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1">
@@ -6839,9 +5835,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="1">
         <v>2</v>
       </c>
@@ -6853,9 +5849,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="1">
         <v>3</v>
       </c>
@@ -6867,9 +5863,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="1">
         <v>4</v>
       </c>
@@ -6881,9 +5877,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="1">
         <v>5</v>
       </c>
@@ -6895,9 +5891,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="1">
         <v>6</v>
       </c>
@@ -6909,9 +5905,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1">
@@ -6925,9 +5921,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="1">
         <v>2</v>
       </c>
@@ -6939,9 +5935,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="1">
         <v>3</v>
       </c>
@@ -6953,9 +5949,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="1">
         <v>4</v>
       </c>
@@ -6967,9 +5963,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1">
@@ -6983,9 +5979,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="1">
         <v>2</v>
       </c>
@@ -6997,9 +5993,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="1">
         <v>3</v>
       </c>
@@ -7011,9 +6007,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="1">
         <v>4</v>
       </c>
@@ -7025,9 +6021,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="1">
         <v>5</v>
       </c>
@@ -7039,9 +6035,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="1">
         <v>6</v>
       </c>
@@ -7053,9 +6049,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="1">
         <v>7</v>
       </c>
@@ -7067,9 +6063,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="1">
         <v>8</v>
       </c>
@@ -7081,9 +6077,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="1">
         <v>9</v>
       </c>
@@ -7095,9 +6091,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="1">
         <v>10</v>
       </c>
@@ -7109,9 +6105,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="1">
@@ -7125,9 +6121,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="1">
         <v>2</v>
       </c>
@@ -7139,9 +6135,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="1">
         <v>3</v>
       </c>
@@ -7153,9 +6149,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="1">
         <v>4</v>
       </c>
@@ -7167,9 +6163,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="1">
         <v>5</v>
       </c>
@@ -7181,9 +6177,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="1">
@@ -7197,9 +6193,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="1">
         <v>2</v>
       </c>
@@ -7211,9 +6207,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="1">
         <v>3</v>
       </c>
@@ -7225,9 +6221,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="1">
         <v>4</v>
       </c>
@@ -7239,9 +6235,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="1">
         <v>5</v>
       </c>
@@ -7253,9 +6249,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="1">
         <v>6</v>
       </c>
@@ -7267,9 +6263,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4" t="s">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="1">
@@ -7283,9 +6279,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="1">
         <v>2</v>
       </c>
@@ -7297,9 +6293,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="1">
         <v>3</v>
       </c>
@@ -7311,9 +6307,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="1">
         <v>4</v>
       </c>
@@ -7325,11 +6321,11 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5">
         <v>2</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="1">
@@ -7343,33 +6339,37 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
       <c r="D46" s="1">
         <v>2</v>
       </c>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
       <c r="F46" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
       <c r="D47" s="1">
         <v>3</v>
       </c>
-      <c r="E47" s="1"/>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
       <c r="F47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
       <c r="D48" s="1">
         <v>4</v>
       </c>
@@ -7381,21 +6381,23 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
       <c r="D49" s="1">
         <v>5</v>
       </c>
-      <c r="E49" s="1"/>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
       <c r="F49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="1">
         <v>6</v>
       </c>
@@ -7407,9 +6409,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4" t="s">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="1">
@@ -7423,33 +6425,37 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="1">
         <v>2</v>
       </c>
-      <c r="E52" s="1"/>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
       <c r="F52" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
       <c r="D53" s="1">
         <v>3</v>
       </c>
-      <c r="E53" s="1"/>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
       <c r="F53" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
       <c r="D54" s="1">
         <v>4</v>
       </c>
@@ -7461,45 +6467,51 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="1">
         <v>5</v>
       </c>
-      <c r="E55" s="1"/>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
       <c r="F55" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="1">
         <v>6</v>
       </c>
-      <c r="E56" s="1"/>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
       <c r="F56" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
       <c r="D57" s="1">
         <v>7</v>
       </c>
-      <c r="E57" s="1"/>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
       <c r="F57" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
       <c r="D58" s="1">
         <v>8</v>
       </c>
@@ -7511,9 +6523,9 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4" t="s">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="1">
@@ -7527,33 +6539,37 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="1">
         <v>2</v>
       </c>
-      <c r="E60" s="1"/>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
       <c r="F60" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
       <c r="D61" s="1">
         <v>3</v>
       </c>
-      <c r="E61" s="1"/>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
       <c r="F61" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
       <c r="D62" s="1">
         <v>4</v>
       </c>
@@ -7565,21 +6581,23 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
       <c r="D63" s="1">
         <v>5</v>
       </c>
-      <c r="E63" s="1"/>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
       <c r="F63" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
       <c r="D64" s="1">
         <v>6</v>
       </c>
@@ -7591,9 +6609,9 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4" t="s">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D65" s="1">
@@ -7607,21 +6625,23 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="1">
         <v>2</v>
       </c>
-      <c r="E66" s="1"/>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
       <c r="F66" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
       <c r="D67" s="1">
         <v>3</v>
       </c>
@@ -7633,9 +6653,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="1">
         <v>4</v>
       </c>
@@ -7647,9 +6667,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4" t="s">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="1">
@@ -7663,33 +6683,37 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
       <c r="D70" s="1">
         <v>2</v>
       </c>
-      <c r="E70" s="1"/>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
       <c r="F70" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="1">
         <v>3</v>
       </c>
-      <c r="E71" s="1"/>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
       <c r="F71" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="1">
         <v>4</v>
       </c>
@@ -7701,21 +6725,23 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="1">
         <v>5</v>
       </c>
-      <c r="E73" s="1"/>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
       <c r="F73" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
       <c r="D74" s="1">
         <v>6</v>
       </c>
@@ -7727,9 +6753,9 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4" t="s">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="1">
@@ -7743,21 +6769,23 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
       <c r="D76" s="1">
         <v>2</v>
       </c>
-      <c r="E76" s="1"/>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
       <c r="F76" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
       <c r="D77" s="1">
         <v>3</v>
       </c>
@@ -7769,33 +6797,37 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
       <c r="D78" s="1">
         <v>4</v>
       </c>
-      <c r="E78" s="1"/>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
       <c r="F78" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
       <c r="D79" s="1">
         <v>5</v>
       </c>
-      <c r="E79" s="1"/>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
       <c r="F79" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="1">
         <v>6</v>
       </c>
@@ -7807,9 +6839,9 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4" t="s">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="1">
@@ -7823,33 +6855,37 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
       <c r="D82" s="1">
         <v>2</v>
       </c>
-      <c r="E82" s="1"/>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
       <c r="F82" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
       <c r="D83" s="1">
         <v>3</v>
       </c>
-      <c r="E83" s="1"/>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
       <c r="F83" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
       <c r="D84" s="1">
         <v>4</v>
       </c>
@@ -7861,45 +6897,51 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
       <c r="D85" s="1">
         <v>5</v>
       </c>
-      <c r="E85" s="1"/>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
       <c r="F85" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
       <c r="D86" s="1">
         <v>6</v>
       </c>
-      <c r="E86" s="1"/>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
       <c r="F86" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
       <c r="D87" s="1">
         <v>7</v>
       </c>
-      <c r="E87" s="1"/>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
       <c r="F87" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
       <c r="D88" s="1">
         <v>8</v>
       </c>
@@ -7911,9 +6953,9 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4" t="s">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D89" s="1">
@@ -7927,9 +6969,9 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
       <c r="D90" s="1">
         <v>2</v>
       </c>
@@ -7941,21 +6983,23 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
       <c r="D91" s="1">
         <v>3</v>
       </c>
-      <c r="E91" s="1"/>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
       <c r="F91" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="1">
         <v>4</v>
       </c>
@@ -7967,11 +7011,11 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5">
         <v>3</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="1">
@@ -7985,21 +7029,23 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
       <c r="D94" s="1">
         <v>2</v>
       </c>
-      <c r="E94" s="1"/>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
       <c r="F94" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
       <c r="D95" s="1">
         <v>3</v>
       </c>
@@ -8011,9 +7057,9 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
       <c r="D96" s="1">
         <v>4</v>
       </c>
@@ -8025,9 +7071,9 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4" t="s">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="1">
@@ -8041,45 +7087,51 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
       <c r="D98" s="1">
         <v>2</v>
       </c>
-      <c r="E98" s="1"/>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
       <c r="F98" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
       <c r="D99" s="1">
         <v>3</v>
       </c>
-      <c r="E99" s="1"/>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
       <c r="F99" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
       <c r="D100" s="1">
         <v>4</v>
       </c>
-      <c r="E100" s="1"/>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
       <c r="F100" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
       <c r="D101" s="1">
         <v>5</v>
       </c>
@@ -8091,57 +7143,65 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
       <c r="D102" s="1">
         <v>6</v>
       </c>
-      <c r="E102" s="1"/>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
       <c r="F102" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
       <c r="D103" s="1">
         <v>7</v>
       </c>
-      <c r="E103" s="1"/>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
       <c r="F103" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
       <c r="D104" s="1">
         <v>8</v>
       </c>
-      <c r="E104" s="1"/>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
       <c r="F104" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
       <c r="D105" s="1">
         <v>9</v>
       </c>
-      <c r="E105" s="1"/>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
       <c r="F105" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
       <c r="D106" s="1">
         <v>10</v>
       </c>
@@ -8153,9 +7213,9 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4" t="s">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="1">
@@ -8169,45 +7229,51 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
       <c r="D108" s="1">
         <v>2</v>
       </c>
-      <c r="E108" s="1"/>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
       <c r="F108" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
       <c r="D109" s="1">
         <v>3</v>
       </c>
-      <c r="E109" s="1"/>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
       <c r="F109" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
       <c r="D110" s="1">
         <v>4</v>
       </c>
-      <c r="E110" s="1"/>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
       <c r="F110" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
       <c r="D111" s="1">
         <v>5</v>
       </c>
@@ -8219,33 +7285,37 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
       <c r="D112" s="1">
         <v>6</v>
       </c>
-      <c r="E112" s="1"/>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
       <c r="F112" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
       <c r="D113" s="1">
         <v>7</v>
       </c>
-      <c r="E113" s="1"/>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
       <c r="F113" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
       <c r="D114" s="1">
         <v>8</v>
       </c>
@@ -8257,9 +7327,9 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4" t="s">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D115" s="1">
@@ -8273,21 +7343,23 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
       <c r="D116" s="1">
         <v>2</v>
       </c>
-      <c r="E116" s="1"/>
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
       <c r="F116" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
       <c r="D117" s="1">
         <v>3</v>
       </c>
@@ -8299,9 +7371,9 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
       <c r="D118" s="1">
         <v>4</v>
       </c>
@@ -8313,9 +7385,9 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4" t="s">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D119" s="1">
@@ -8329,45 +7401,51 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
       <c r="D120" s="1">
         <v>2</v>
       </c>
-      <c r="E120" s="1"/>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
       <c r="F120" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
       <c r="D121" s="1">
         <v>3</v>
       </c>
-      <c r="E121" s="1"/>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
       <c r="F121" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
       <c r="D122" s="1">
         <v>4</v>
       </c>
-      <c r="E122" s="1"/>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
       <c r="F122" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
       <c r="D123" s="1">
         <v>5</v>
       </c>
@@ -8379,57 +7457,65 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
       <c r="D124" s="1">
         <v>6</v>
       </c>
-      <c r="E124" s="1"/>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
       <c r="F124" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
       <c r="D125" s="1">
         <v>7</v>
       </c>
-      <c r="E125" s="1"/>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
       <c r="F125" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
       <c r="D126" s="1">
         <v>8</v>
       </c>
-      <c r="E126" s="1"/>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
       <c r="F126" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
       <c r="D127" s="1">
         <v>9</v>
       </c>
-      <c r="E127" s="1"/>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
       <c r="F127" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
       <c r="D128" s="1">
         <v>10</v>
       </c>
@@ -8441,9 +7527,9 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4" t="s">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="1">
@@ -8457,45 +7543,51 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
       <c r="D130" s="1">
         <v>2</v>
       </c>
-      <c r="E130" s="1"/>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
       <c r="F130" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
       <c r="D131" s="1">
         <v>3</v>
       </c>
-      <c r="E131" s="1"/>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
       <c r="F131" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
       <c r="D132" s="1">
         <v>4</v>
       </c>
-      <c r="E132" s="1"/>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
       <c r="F132" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
       <c r="D133" s="1">
         <v>5</v>
       </c>
@@ -8507,33 +7599,37 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
       <c r="D134" s="1">
         <v>6</v>
       </c>
-      <c r="E134" s="1"/>
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
       <c r="F134" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
       <c r="D135" s="1">
         <v>7</v>
       </c>
-      <c r="E135" s="1"/>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
       <c r="F135" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
       <c r="D136" s="1">
         <v>8</v>
       </c>
@@ -8545,9 +7641,9 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4" t="s">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="1">
@@ -8561,33 +7657,37 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
       <c r="D138" s="1">
         <v>2</v>
       </c>
-      <c r="E138" s="1"/>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
       <c r="F138" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
       <c r="D139" s="1">
         <v>3</v>
       </c>
-      <c r="E139" s="1"/>
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
       <c r="F139" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
       <c r="D140" s="1">
         <v>4</v>
       </c>
@@ -8599,45 +7699,51 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
       <c r="D141" s="1">
         <v>5</v>
       </c>
-      <c r="E141" s="1"/>
+      <c r="E141" s="1">
+        <v>0</v>
+      </c>
       <c r="F141" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
       <c r="D142" s="1">
         <v>6</v>
       </c>
-      <c r="E142" s="1"/>
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
       <c r="F142" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
       <c r="D143" s="1">
         <v>7</v>
       </c>
-      <c r="E143" s="1"/>
+      <c r="E143" s="1">
+        <v>0</v>
+      </c>
       <c r="F143" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
       <c r="D144" s="1">
         <v>8</v>
       </c>
@@ -8648,8 +7754,53 @@
         <v>0</v>
       </c>
     </row>
+    <row r="145" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D145" t="s">
+        <v>21</v>
+      </c>
+      <c r="E145">
+        <f>SUM(E2:E144)</f>
+        <v>88</v>
+      </c>
+      <c r="F145">
+        <f>(E145/E147)*100</f>
+        <v>61.53846153846154</v>
+      </c>
+    </row>
+    <row r="146" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D146" t="s">
+        <v>20</v>
+      </c>
+      <c r="E146">
+        <f>E147-E145</f>
+        <v>55</v>
+      </c>
+      <c r="F146">
+        <f>(E146/E147)*100</f>
+        <v>38.461538461538467</v>
+      </c>
+    </row>
+    <row r="147" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147">
+        <f>COUNT(E2:E144)</f>
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="B2:B44"/>
+    <mergeCell ref="C137:C144"/>
+    <mergeCell ref="B93:B144"/>
+    <mergeCell ref="B45:B92"/>
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="C30:C34"/>
     <mergeCell ref="A2:A144"/>
     <mergeCell ref="C129:C136"/>
     <mergeCell ref="C119:C128"/>
@@ -8666,16 +7817,6 @@
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="C59:C64"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="B2:B44"/>
-    <mergeCell ref="C137:C144"/>
-    <mergeCell ref="B93:B144"/>
-    <mergeCell ref="B45:B92"/>
-    <mergeCell ref="C51:C58"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="C30:C34"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E144">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">

--- a/sample_status.xlsx
+++ b/sample_status.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zabdi/Documents/GitHub/fellowship-of-the-growth-rings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238FD149-F0AC-D648-8752-BD7585FB59A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08568BA4-CF54-894A-B63B-F2978201B790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="1060" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{9440439D-72F5-B441-976E-5500384619B7}"/>
+    <workbookView xWindow="760" yWindow="1060" windowWidth="28040" windowHeight="16940" activeTab="3" xr2:uid="{9440439D-72F5-B441-976E-5500384619B7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="E13A" sheetId="1" r:id="rId1"/>
+    <sheet name="E13C" sheetId="2" r:id="rId2"/>
+    <sheet name="E13D" sheetId="3" r:id="rId3"/>
+    <sheet name="E13V" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="31">
   <si>
     <t>SITE</t>
   </si>
@@ -118,6 +119,21 @@
   <si>
     <t>broken</t>
   </si>
+  <si>
+    <t>destroyed</t>
+  </si>
+  <si>
+    <t>Worked</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,6 +157,46 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -150,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -158,11 +214,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,9 +480,87 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -600,8 +976,8 @@
   <dimension ref="A1:G569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2328,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B8BA3A-B3B9-D349-9807-AF47BAC6C8D8}">
   <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2661,7 +3037,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2719,7 +3095,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2733,7 +3109,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2761,7 +3137,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -2775,7 +3151,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -2819,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -2879,7 +3255,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -2893,7 +3269,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -2907,7 +3283,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -2935,7 +3311,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -2949,7 +3325,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -2993,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3065,7 +3441,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -3109,7 +3485,7 @@
         <v>2</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -3123,7 +3499,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -3151,7 +3527,7 @@
         <v>5</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3281,7 +3657,7 @@
         <v>2</v>
       </c>
       <c r="E65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -3395,7 +3771,7 @@
         <v>4</v>
       </c>
       <c r="E73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -3439,7 +3815,7 @@
         <v>2</v>
       </c>
       <c r="E76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -3467,7 +3843,7 @@
         <v>4</v>
       </c>
       <c r="E78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -3481,7 +3857,7 @@
         <v>5</v>
       </c>
       <c r="E79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -3566,11 +3942,11 @@
       </c>
       <c r="E85" s="2">
         <f>SUM(E2:E84)</f>
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F85" s="6">
         <f>(E85/E86)*100</f>
-        <v>66.265060240963862</v>
+        <v>91.566265060240966</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -3591,11 +3967,11 @@
       </c>
       <c r="E87" s="2">
         <f>E86-E85</f>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F87" s="6">
         <f>(E87/E86)*100</f>
-        <v>33.734939759036145</v>
+        <v>8.4337349397590362</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -3992,13 +4368,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21D1B7D-9203-0A4B-BCF3-91ED701E39E0}">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -4238,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4252,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4266,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -4280,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -4294,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -4308,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
@@ -4324,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -4332,13 +4711,13 @@
         <v>2</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -4346,13 +4725,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -4366,21 +4745,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="1">
         <v>5</v>
       </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -4394,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
@@ -4410,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -4418,13 +4798,13 @@
         <v>2</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -4438,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4446,13 +4826,13 @@
         <v>4</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -4460,7 +4840,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -4675,21 +5055,19 @@
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -4701,11 +5079,9 @@
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C49" s="5"/>
       <c r="D49" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -4717,9 +5093,11 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="C50" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -4733,7 +5111,7 @@
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -4747,7 +5125,7 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -4761,7 +5139,7 @@
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -4773,11 +5151,9 @@
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="C54" s="5"/>
       <c r="D54" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -4789,9 +5165,11 @@
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+      <c r="C55" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -4805,7 +5183,7 @@
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -4819,7 +5197,7 @@
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -4833,7 +5211,7 @@
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -4845,11 +5223,9 @@
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="C59" s="5"/>
       <c r="D59" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -4861,9 +5237,11 @@
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+      <c r="C60" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D60" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -4877,7 +5255,7 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -4891,7 +5269,7 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -4905,7 +5283,7 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -4919,7 +5297,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -4933,7 +5311,7 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -4947,7 +5325,7 @@
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -4959,11 +5337,9 @@
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="5"/>
+      <c r="D67" s="1">
         <v>8</v>
-      </c>
-      <c r="D67" s="1">
-        <v>1</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -4975,9 +5351,11 @@
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
+      <c r="C68" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D68" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -4991,7 +5369,7 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -5005,7 +5383,7 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -5019,7 +5397,7 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
@@ -5033,10 +5411,10 @@
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -5049,11 +5427,9 @@
         <v>9</v>
       </c>
       <c r="D73" s="1">
-        <v>1</v>
-      </c>
-      <c r="E73" s="1">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E73" s="1"/>
       <c r="F73" s="1">
         <v>0</v>
       </c>
@@ -5063,7 +5439,7 @@
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -5077,7 +5453,7 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
@@ -5091,7 +5467,7 @@
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -5102,14 +5478,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
-      <c r="B77" s="5">
-        <v>3</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
       <c r="D77" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -5120,10 +5492,14 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
+      <c r="B78" s="5">
+        <v>3</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="D78" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -5137,10 +5513,10 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -5151,7 +5527,7 @@
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
@@ -5163,11 +5539,9 @@
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
-      <c r="C81" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="C81" s="5"/>
       <c r="D81" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E81" s="1">
         <v>1</v>
@@ -5179,12 +5553,14 @@
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
+      <c r="C82" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D82" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -5195,7 +5571,7 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -5209,7 +5585,7 @@
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84" s="1">
         <v>0</v>
@@ -5223,10 +5599,10 @@
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -5237,10 +5613,10 @@
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -5251,7 +5627,7 @@
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E87" s="1">
         <v>0</v>
@@ -5265,7 +5641,7 @@
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -5279,10 +5655,10 @@
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -5291,11 +5667,9 @@
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
-      <c r="C90" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="C90" s="5"/>
       <c r="D90" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
@@ -5307,12 +5681,14 @@
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
+      <c r="C91" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D91" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -5323,10 +5699,10 @@
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -5337,7 +5713,7 @@
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E93" s="1">
         <v>0</v>
@@ -5351,10 +5727,10 @@
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -5365,7 +5741,7 @@
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -5379,10 +5755,10 @@
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -5391,11 +5767,9 @@
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
-      <c r="C97" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="C97" s="5"/>
       <c r="D97" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
@@ -5407,12 +5781,14 @@
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
+      <c r="C98" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D98" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
@@ -5423,10 +5799,10 @@
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -5437,10 +5813,10 @@
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
@@ -5451,10 +5827,10 @@
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" s="1">
         <v>0</v>
@@ -5463,11 +5839,9 @@
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
-      <c r="C102" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="C102" s="5"/>
       <c r="D102" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
@@ -5479,12 +5853,14 @@
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
+      <c r="C103" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D103" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
@@ -5495,7 +5871,7 @@
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -5509,10 +5885,10 @@
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" s="1">
         <v>0</v>
@@ -5523,7 +5899,7 @@
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -5535,11 +5911,9 @@
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
-      <c r="C107" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C107" s="5"/>
       <c r="D107" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -5551,9 +5925,11 @@
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
+      <c r="C108" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D108" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -5567,10 +5943,10 @@
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
@@ -5581,76 +5957,90 @@
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="1">
+        <v>3</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="1">
         <v>4</v>
       </c>
-      <c r="E110" s="1">
-        <v>1</v>
-      </c>
-      <c r="F110" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D111" t="s">
-        <v>21</v>
-      </c>
-      <c r="E111">
-        <f>SUM(E2:E110)</f>
-        <v>66</v>
-      </c>
-      <c r="F111">
-        <f>(E111/E113)*100</f>
-        <v>60.550458715596335</v>
+      <c r="E111" s="1">
+        <v>1</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112">
+        <f>SUM(E2:E111)</f>
+        <v>77</v>
+      </c>
+      <c r="F112" s="7">
+        <f>(E112/E114)*100</f>
+        <v>71.296296296296291</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
         <v>20</v>
       </c>
-      <c r="E112">
-        <f>E113-E111</f>
-        <v>43</v>
-      </c>
-      <c r="F112">
-        <f>(E112/E113)*100</f>
-        <v>39.449541284403672</v>
-      </c>
-    </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D113" t="s">
+      <c r="E113">
+        <f>E114-E112</f>
+        <v>31</v>
+      </c>
+      <c r="F113" s="7">
+        <f>(E113/E114)*100</f>
+        <v>28.703703703703702</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
         <v>19</v>
       </c>
-      <c r="E113">
-        <f>COUNT(E2:E110)</f>
-        <v>109</v>
+      <c r="E114">
+        <f>COUNT(E2:E111)</f>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C81:C89"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="A2:A111"/>
+    <mergeCell ref="B78:B111"/>
+    <mergeCell ref="B42:B77"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C90"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="C103:C107"/>
     <mergeCell ref="B2:B41"/>
-    <mergeCell ref="A2:A110"/>
-    <mergeCell ref="B42:B76"/>
-    <mergeCell ref="B77:B110"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="C14:C21"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="C28:C33"/>
     <mergeCell ref="C34:C41"/>
     <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="C59:C66"/>
-    <mergeCell ref="C67:C72"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E110">
+  <conditionalFormatting sqref="E2:E111">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -5664,10 +6054,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22AE6DC-FDE9-0640-9C1E-562AC01C9AB6}">
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6346,7 +6736,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -6360,7 +6750,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -6380,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -6388,13 +6778,13 @@
         <v>5</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -6408,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5" t="s">
@@ -6424,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -6432,13 +6822,13 @@
         <v>2</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -6446,13 +6836,13 @@
         <v>3</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -6466,21 +6856,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="1">
         <v>5</v>
       </c>
-      <c r="E55" s="1">
-        <v>0</v>
-      </c>
+      <c r="E55" s="1"/>
       <c r="F55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -6488,13 +6879,13 @@
         <v>6</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -6502,13 +6893,13 @@
         <v>7</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -6522,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5" t="s">
@@ -6538,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -6546,13 +6937,13 @@
         <v>2</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -6560,13 +6951,13 @@
         <v>3</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -6580,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -6588,13 +6979,13 @@
         <v>5</v>
       </c>
       <c r="E63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -6608,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
@@ -6624,21 +7015,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="1">
         <v>2</v>
       </c>
-      <c r="E66" s="1">
-        <v>0</v>
-      </c>
+      <c r="E66" s="1"/>
       <c r="F66" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -6652,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -6666,7 +7058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
@@ -6682,7 +7074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -6690,13 +7082,13 @@
         <v>2</v>
       </c>
       <c r="E70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -6704,13 +7096,13 @@
         <v>3</v>
       </c>
       <c r="E71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -6724,7 +7116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -6732,13 +7124,13 @@
         <v>5</v>
       </c>
       <c r="E73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -6752,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
@@ -6768,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -6776,13 +7168,13 @@
         <v>2</v>
       </c>
       <c r="E76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -6796,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -6804,13 +7196,13 @@
         <v>4</v>
       </c>
       <c r="E78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -6818,13 +7210,13 @@
         <v>5</v>
       </c>
       <c r="E79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -6862,7 +7254,7 @@
         <v>2</v>
       </c>
       <c r="E82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -6876,7 +7268,7 @@
         <v>3</v>
       </c>
       <c r="E83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -6904,7 +7296,7 @@
         <v>5</v>
       </c>
       <c r="E85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -6918,7 +7310,7 @@
         <v>6</v>
       </c>
       <c r="E86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -6932,7 +7324,7 @@
         <v>7</v>
       </c>
       <c r="E87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -6990,7 +7382,7 @@
         <v>3</v>
       </c>
       <c r="E91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -7760,11 +8152,11 @@
       </c>
       <c r="E145">
         <f>SUM(E2:E144)</f>
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F145">
         <f>(E145/E147)*100</f>
-        <v>61.53846153846154</v>
+        <v>78.01418439716312</v>
       </c>
     </row>
     <row r="146" spans="4:6" x14ac:dyDescent="0.2">
@@ -7773,11 +8165,11 @@
       </c>
       <c r="E146">
         <f>E147-E145</f>
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F146">
         <f>(E146/E147)*100</f>
-        <v>38.461538461538467</v>
+        <v>21.98581560283688</v>
       </c>
     </row>
     <row r="147" spans="4:6" x14ac:dyDescent="0.2">
@@ -7786,7 +8178,7 @@
       </c>
       <c r="E147">
         <f>COUNT(E2:E144)</f>
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -7828,4 +8220,590 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2057EC-805C-ED4B-B4A5-E261467E16E2}">
+  <dimension ref="A1:J143"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="20">
+        <f>E13A!E112</f>
+        <v>93</v>
+      </c>
+      <c r="C2" s="21">
+        <f>(B2/B4)</f>
+        <v>0.84545454545454546</v>
+      </c>
+      <c r="D2" s="38">
+        <f>E13C!E85</f>
+        <v>76</v>
+      </c>
+      <c r="E2" s="22">
+        <f>D2/D4</f>
+        <v>0.91566265060240959</v>
+      </c>
+      <c r="F2" s="23">
+        <f>E13D!E112</f>
+        <v>77</v>
+      </c>
+      <c r="G2" s="21">
+        <f>F2/F4</f>
+        <v>0.71296296296296291</v>
+      </c>
+      <c r="H2" s="24">
+        <f>E13V!E145</f>
+        <v>110</v>
+      </c>
+      <c r="I2" s="21">
+        <f>H2/H4</f>
+        <v>0.78014184397163122</v>
+      </c>
+      <c r="J2" s="25">
+        <f>(B2+D2+F2+H2)</f>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="27">
+        <f>E13A!E113</f>
+        <v>17</v>
+      </c>
+      <c r="C3" s="28">
+        <f>B3/B4</f>
+        <v>0.15454545454545454</v>
+      </c>
+      <c r="D3" s="39">
+        <f>E13C!E87</f>
+        <v>7</v>
+      </c>
+      <c r="E3" s="29">
+        <f>D3/D4</f>
+        <v>8.4337349397590355E-2</v>
+      </c>
+      <c r="F3" s="30">
+        <f>E13D!E113</f>
+        <v>31</v>
+      </c>
+      <c r="G3" s="28">
+        <f>F3/F4</f>
+        <v>0.28703703703703703</v>
+      </c>
+      <c r="H3" s="31">
+        <f>E13V!E146</f>
+        <v>31</v>
+      </c>
+      <c r="I3" s="28">
+        <f>H3/H4</f>
+        <v>0.21985815602836881</v>
+      </c>
+      <c r="J3" s="25">
+        <f>B3+D3+F3+H3</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="32">
+        <f>E13A!E114</f>
+        <v>110</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34">
+        <f>E13C!E86</f>
+        <v>83</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36">
+        <f>E13D!E114</f>
+        <v>108</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="37">
+        <f>E13V!E147</f>
+        <v>141</v>
+      </c>
+      <c r="I4" s="33"/>
+      <c r="J4" s="18">
+        <f>B4+D4+F4+H4</f>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F92" s="8"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F95" s="8"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F98" s="8"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F100" s="8"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F101" s="8"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F102" s="8"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F103" s="8"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F104" s="8"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F105" s="8"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F106" s="8"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F107" s="8"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F108" s="8"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F109" s="8"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F110" s="8"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F111" s="8"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F112" s="8"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F113" s="8"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F114" s="8"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F115" s="8"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F116" s="8"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F117" s="8"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F118" s="8"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F119" s="8"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F120" s="8"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F121" s="8"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F122" s="8"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F123" s="8"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F124" s="8"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F125" s="8"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F126" s="8"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F127" s="8"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F128" s="8"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F129" s="8"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F130" s="8"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F131" s="8"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F132" s="8"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F133" s="8"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F134" s="8"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F135" s="8"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F136" s="8"/>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F137" s="8"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F138" s="8"/>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F139" s="8"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F140" s="8"/>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F141" s="8"/>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F142" s="8"/>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F143" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sample_status.xlsx
+++ b/sample_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zabdi/Documents/GitHub/fellowship-of-the-growth-rings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08568BA4-CF54-894A-B63B-F2978201B790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C01FA1-3946-7D49-A7E9-903D8BBA2B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="1060" windowWidth="28040" windowHeight="16940" activeTab="3" xr2:uid="{9440439D-72F5-B441-976E-5500384619B7}"/>
+    <workbookView xWindow="760" yWindow="1060" windowWidth="28040" windowHeight="16940" activeTab="4" xr2:uid="{9440439D-72F5-B441-976E-5500384619B7}"/>
   </bookViews>
   <sheets>
     <sheet name="E13A" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -197,6 +197,13 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -206,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -337,11 +344,30 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,7 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -488,7 +514,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -497,16 +523,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -519,30 +542,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,7 +574,27 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -562,7 +602,87 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -976,8 +1096,8 @@
   <dimension ref="A1:G569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A111"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1207,9 +1327,6 @@
       <c r="D15" s="1">
         <v>5</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
@@ -1512,9 +1629,6 @@
       <c r="D36" s="1">
         <v>9</v>
       </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
@@ -1557,9 +1671,6 @@
       <c r="D39" s="1">
         <v>12</v>
       </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
       <c r="F39" s="1">
         <v>0</v>
       </c>
@@ -1574,9 +1685,6 @@
       <c r="D40" s="1">
         <v>13</v>
       </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
       <c r="F40" s="1">
         <v>0</v>
       </c>
@@ -1591,9 +1699,6 @@
       <c r="D41" s="1">
         <v>14</v>
       </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
@@ -1608,9 +1713,6 @@
       <c r="D42" s="1">
         <v>15</v>
       </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
       <c r="F42" s="1">
         <v>0</v>
       </c>
@@ -1667,9 +1769,6 @@
       <c r="D46" s="1">
         <v>19</v>
       </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
       <c r="F46" s="1">
         <v>0</v>
       </c>
@@ -1828,9 +1927,6 @@
       <c r="D57" s="1">
         <v>2</v>
       </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
       <c r="F57" s="1">
         <v>0</v>
       </c>
@@ -1929,9 +2025,6 @@
       <c r="D64" s="1">
         <v>9</v>
       </c>
-      <c r="E64" s="1">
-        <v>1</v>
-      </c>
       <c r="F64" s="1">
         <v>0</v>
       </c>
@@ -1988,9 +2081,6 @@
       <c r="D68" s="1">
         <v>13</v>
       </c>
-      <c r="E68" s="1">
-        <v>1</v>
-      </c>
       <c r="F68" s="1">
         <v>0</v>
       </c>
@@ -2624,11 +2714,11 @@
       </c>
       <c r="E112" s="1">
         <f>SUM(E2:E111)</f>
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F112" s="4">
         <f>(E112/E114)*100</f>
-        <v>84.545454545454547</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="4:6" x14ac:dyDescent="0.2">
@@ -2636,12 +2726,12 @@
         <v>20</v>
       </c>
       <c r="E113" s="1">
-        <f>110-E112</f>
+        <f>E114-E112</f>
         <v>17</v>
       </c>
       <c r="F113" s="4">
         <f>(E113/E114)*100</f>
-        <v>15.454545454545453</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="4:6" x14ac:dyDescent="0.2">
@@ -2650,7 +2740,7 @@
       </c>
       <c r="E114" s="1">
         <f>COUNT(E2:E111)</f>
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="569" spans="4:6" x14ac:dyDescent="0.2">
@@ -2659,7 +2749,7 @@
       </c>
       <c r="E569" s="1">
         <f>SUM(E2:E111)</f>
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F569" s="1">
         <f>SUM(F2:F111)</f>
@@ -2689,10 +2779,10 @@
     <mergeCell ref="C70:C73"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E111">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2704,8 +2794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B8BA3A-B3B9-D349-9807-AF47BAC6C8D8}">
   <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A84"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E84" sqref="E2:E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4355,10 +4445,10 @@
     <mergeCell ref="C75:C80"/>
   </mergeCells>
   <conditionalFormatting sqref="F87 E2:F84">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4370,8 +4460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21D1B7D-9203-0A4B-BCF3-91ED701E39E0}">
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A111"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6041,10 +6131,10 @@
     <mergeCell ref="C42:C45"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E111">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6056,8 +6146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22AE6DC-FDE9-0640-9C1E-562AC01C9AB6}">
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7428,7 +7518,7 @@
         <v>2</v>
       </c>
       <c r="E94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -7486,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="E98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
@@ -7500,7 +7590,7 @@
         <v>3</v>
       </c>
       <c r="E99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -7514,7 +7604,7 @@
         <v>4</v>
       </c>
       <c r="E100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
@@ -7542,7 +7632,7 @@
         <v>6</v>
       </c>
       <c r="E102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" s="1">
         <v>0</v>
@@ -7556,7 +7646,7 @@
         <v>7</v>
       </c>
       <c r="E103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
@@ -7570,7 +7660,7 @@
         <v>8</v>
       </c>
       <c r="E104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" s="1">
         <v>0</v>
@@ -7584,7 +7674,7 @@
         <v>9</v>
       </c>
       <c r="E105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" s="1">
         <v>0</v>
@@ -7628,7 +7718,7 @@
         <v>2</v>
       </c>
       <c r="E108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" s="1">
         <v>0</v>
@@ -7642,7 +7732,7 @@
         <v>3</v>
       </c>
       <c r="E109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
@@ -7656,7 +7746,7 @@
         <v>4</v>
       </c>
       <c r="E110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
@@ -7684,7 +7774,7 @@
         <v>6</v>
       </c>
       <c r="E112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" s="1">
         <v>0</v>
@@ -7698,7 +7788,7 @@
         <v>7</v>
       </c>
       <c r="E113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -8152,11 +8242,11 @@
       </c>
       <c r="E145">
         <f>SUM(E2:E144)</f>
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F145">
         <f>(E145/E147)*100</f>
-        <v>78.01418439716312</v>
+        <v>87.2340425531915</v>
       </c>
     </row>
     <row r="146" spans="4:6" x14ac:dyDescent="0.2">
@@ -8165,11 +8255,11 @@
       </c>
       <c r="E146">
         <f>E147-E145</f>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F146">
         <f>(E146/E147)*100</f>
-        <v>21.98581560283688</v>
+        <v>12.76595744680851</v>
       </c>
     </row>
     <row r="147" spans="4:6" x14ac:dyDescent="0.2">
@@ -8211,10 +8301,10 @@
     <mergeCell ref="C59:C64"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E144">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8224,10 +8314,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2057EC-805C-ED4B-B4A5-E261467E16E2}">
-  <dimension ref="A1:J143"/>
+  <dimension ref="A1:O447"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8241,10 +8331,11 @@
     <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -8261,549 +8352,2547 @@
       <c r="H1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="40" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="K1" s="41"/>
+      <c r="O1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="27" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="19">
         <f>E13A!E112</f>
-        <v>93</v>
-      </c>
-      <c r="C2" s="21">
+        <v>83</v>
+      </c>
+      <c r="C2" s="20">
         <f>(B2/B4)</f>
-        <v>0.84545454545454546</v>
-      </c>
-      <c r="D2" s="38">
+        <v>0.83</v>
+      </c>
+      <c r="D2" s="36">
         <f>E13C!E85</f>
         <v>76</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="21">
         <f>D2/D4</f>
         <v>0.91566265060240959</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="22">
         <f>E13D!E112</f>
         <v>77</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <f>F2/F4</f>
         <v>0.71296296296296291</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="23">
         <f>E13V!E145</f>
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="I2" s="21">
         <f>H2/H4</f>
-        <v>0.78014184397163122</v>
-      </c>
-      <c r="J2" s="25">
+        <v>0.87234042553191493</v>
+      </c>
+      <c r="J2" s="44">
         <f>(B2+D2+F2+H2)</f>
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="K2" s="42">
+        <f>J2/J4</f>
+        <v>0.83101851851851849</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="25">
         <f>E13A!E113</f>
         <v>17</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="26">
         <f>B3/B4</f>
-        <v>0.15454545454545454</v>
-      </c>
-      <c r="D3" s="39">
+        <v>0.17</v>
+      </c>
+      <c r="D3" s="37">
         <f>E13C!E87</f>
         <v>7</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="27">
         <f>D3/D4</f>
         <v>8.4337349397590355E-2</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="28">
         <f>E13D!E113</f>
         <v>31</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="26">
         <f>F3/F4</f>
         <v>0.28703703703703703</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="29">
         <f>E13V!E146</f>
-        <v>31</v>
-      </c>
-      <c r="I3" s="28">
+        <v>18</v>
+      </c>
+      <c r="I3" s="27">
         <f>H3/H4</f>
-        <v>0.21985815602836881</v>
-      </c>
-      <c r="J3" s="25">
+        <v>0.1276595744680851</v>
+      </c>
+      <c r="J3" s="45">
         <f>B3+D3+F3+H3</f>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="43">
+        <f>J3/J4</f>
+        <v>0.16898148148148148</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="30">
         <f>E13A!E114</f>
-        <v>110</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34">
+        <v>100</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32">
         <f>E13C!E86</f>
         <v>83</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36">
+      <c r="E4" s="33"/>
+      <c r="F4" s="34">
         <f>E13D!E114</f>
         <v>108</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="37">
+      <c r="G4" s="31"/>
+      <c r="H4" s="35">
         <f>E13V!E147</f>
         <v>141</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="18">
+      <c r="I4" s="31"/>
+      <c r="J4" s="38">
         <f>B4+D4+F4+H4</f>
-        <v>442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+      <c r="K4" s="39"/>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <f>446-J4</f>
+        <v>14</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F58" s="8"/>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F64" s="8"/>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F65" s="8"/>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F66" s="8"/>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F67" s="8"/>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F68" s="8"/>
-    </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F69" s="8"/>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F70" s="8"/>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F71" s="8"/>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F72" s="8"/>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F73" s="8"/>
-    </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F74" s="8"/>
-    </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F75" s="8"/>
-    </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F76" s="8"/>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F77" s="8"/>
-    </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F78" s="8"/>
-    </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F79" s="8"/>
-    </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F80" s="8"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F81" s="8"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F82" s="8"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F83" s="8"/>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F84" s="8"/>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F85" s="8"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F86" s="8"/>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F87" s="8"/>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F88" s="8"/>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F89" s="8"/>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F90" s="8"/>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F91" s="8"/>
-    </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F92" s="8"/>
-    </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F93" s="8"/>
-    </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F94" s="8"/>
-    </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F95" s="8"/>
-    </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F96" s="8"/>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F97" s="8"/>
-    </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F98" s="8"/>
-    </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F99" s="8"/>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F100" s="8"/>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F101" s="8"/>
-    </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F102" s="8"/>
-    </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F103" s="8"/>
-    </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F104" s="8"/>
-    </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F105" s="8"/>
-    </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F106" s="8"/>
-    </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F107" s="8"/>
-    </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F108" s="8"/>
-    </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F109" s="8"/>
-    </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F110" s="8"/>
-    </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F111" s="8"/>
-    </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F112" s="8"/>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F113" s="8"/>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F114" s="8"/>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F115" s="8"/>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F116" s="8"/>
-    </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F117" s="8"/>
-    </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F118" s="8"/>
-    </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F119" s="8"/>
-    </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O119" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F120" s="8"/>
-    </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F121" s="8"/>
-    </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O121" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F122" s="8"/>
-    </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O122" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F123" s="8"/>
-    </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F124" s="8"/>
-    </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F125" s="8"/>
-    </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F126" s="8"/>
-    </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F127" s="8"/>
-    </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F128" s="8"/>
-    </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F129" s="8"/>
-    </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F130" s="8"/>
-    </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F131" s="8"/>
-    </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F132" s="8"/>
-    </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F133" s="8"/>
-    </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F134" s="8"/>
-    </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F135" s="8"/>
-    </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F136" s="8"/>
-    </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F137" s="8"/>
-    </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F138" s="8"/>
-    </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F139" s="8"/>
-    </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F140" s="8"/>
-    </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F141" s="8"/>
-    </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F142" s="8"/>
-    </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="O142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F143" s="8"/>
+      <c r="O143" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="O144" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O147" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O148" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O150" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O151" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O152" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O153" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O156" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O157" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O158" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O159" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O160" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O161" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O162" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O163" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O164" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O165" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O166" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O167" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O168" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O169" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O170" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O171" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O172" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O173" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O174" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O175" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O176" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O177" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O178" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O179" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O180" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O181" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O182" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O183" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O184" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O185" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O186" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O187" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O188" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O189" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O190" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O191" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O192" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O193" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O194" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O195" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O196" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O197" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O198" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O199" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O200" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O201" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O202" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O203" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O204" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O205" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O206" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O207" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O208" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O209" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O210" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O211" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O212" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O213" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O214" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O215" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O216" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O217" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O218" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O219" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O220" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O221" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O222" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O223" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O224" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O225" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O226" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O227" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O228" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O229" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O230" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O231" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O232" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O233" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O234" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O235" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O236" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O237" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O238" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O239" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O240" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O241" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O242" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O243" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O244" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O245" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O246" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O247" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O248" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O249" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O250" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O251" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O252" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O253" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O254" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O255" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O256" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O257" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O258" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O259" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O260" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O261" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O262" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O263" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O264" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O265" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O266" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O267" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O268" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O269" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O270" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O271" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O272" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O273" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O274" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O275" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O276" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O277" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O278" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O279" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O280" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O281" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O282" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O283" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O284" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O285" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O286" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O287" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O288" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O289" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O290" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O291" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O292" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O293" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O294" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O295" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O296" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O297" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O298" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O299" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O300" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O301" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O302" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O303" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O304" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O305" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O306" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O307" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O308" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O309" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O310" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O311" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O312" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O313" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O314" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O315" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O316" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O317" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O318" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O319" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O320" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O321" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O322" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O323" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O324" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O325" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O326" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O327" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O328" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O329" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O330" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O331" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O332" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O333" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O334" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O335" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O336" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O337" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O338" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O339" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O340" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O341" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O342" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O343" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O344" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O345" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O346" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O347" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O348" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O349" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O350" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O351" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O352" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O353" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O354" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O355" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O356" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O357" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O358" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O359" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O360" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O361" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O362" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O363" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O364" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O365" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O366" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O367" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O368" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O369" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O370" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O371" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O372" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O373" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O374" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O375" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O376" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O377" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O378" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O379" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O380" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O381" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O382" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O383" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O384" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O385" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O386" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O387" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O388" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O389" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O390" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O391" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O392" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O393" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O394" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O395" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O396" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O397" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O398" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O399" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O400" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O401" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O402" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O403" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O404" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O405" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O406" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O407" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O408" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O409" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O410" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O411" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O412" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O413" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O414" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O415" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O416" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O417" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O418" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O419" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O420" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O421" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O422" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O423" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O424" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O425" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O426" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O427" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O428" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O429" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O430" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O431" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O432" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O433" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O434" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O435" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O436" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O437" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O438" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O439" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O440" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O441" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O442" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O443" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O444" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O445" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O446" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O447">
+        <f>SUM(O1:O446)</f>
+        <v>446</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
+  <conditionalFormatting sqref="O1:O110">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O111:O193">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O194:O303">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O304:O446">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sample_status.xlsx
+++ b/sample_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zabdi/Documents/GitHub/fellowship-of-the-growth-rings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C01FA1-3946-7D49-A7E9-903D8BBA2B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08698B5-FE9A-7343-9955-BEFD33AC81C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="1060" windowWidth="28040" windowHeight="16940" activeTab="4" xr2:uid="{9440439D-72F5-B441-976E-5500384619B7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="32">
   <si>
     <t>SITE</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ask Roland</t>
   </si>
 </sst>
 </file>
@@ -602,87 +605,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2779,10 +2702,10 @@
     <mergeCell ref="C70:C73"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E111">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4445,10 +4368,10 @@
     <mergeCell ref="C75:C80"/>
   </mergeCells>
   <conditionalFormatting sqref="F87 E2:F84">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4461,7 +4384,7 @@
   <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E111"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6131,10 +6054,10 @@
     <mergeCell ref="C42:C45"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E111">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6146,8 +6069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22AE6DC-FDE9-0640-9C1E-562AC01C9AB6}">
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E144"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7832,7 +7755,7 @@
         <v>2</v>
       </c>
       <c r="E116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
@@ -7890,7 +7813,7 @@
         <v>2</v>
       </c>
       <c r="E120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" s="1">
         <v>0</v>
@@ -7904,7 +7827,7 @@
         <v>3</v>
       </c>
       <c r="E121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" s="1">
         <v>0</v>
@@ -7918,7 +7841,7 @@
         <v>4</v>
       </c>
       <c r="E122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" s="1">
         <v>0</v>
@@ -7946,7 +7869,7 @@
         <v>6</v>
       </c>
       <c r="E124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" s="1">
         <v>0</v>
@@ -7960,7 +7883,7 @@
         <v>7</v>
       </c>
       <c r="E125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
@@ -7974,7 +7897,7 @@
         <v>8</v>
       </c>
       <c r="E126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" s="1">
         <v>0</v>
@@ -7988,7 +7911,7 @@
         <v>9</v>
       </c>
       <c r="E127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" s="1">
         <v>0</v>
@@ -8008,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5" t="s">
@@ -8024,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -8032,13 +7955,13 @@
         <v>2</v>
       </c>
       <c r="E130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -8046,13 +7969,13 @@
         <v>3</v>
       </c>
       <c r="E131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -8060,13 +7983,13 @@
         <v>4</v>
       </c>
       <c r="E132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -8080,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -8088,13 +8011,13 @@
         <v>6</v>
       </c>
       <c r="E134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -8102,13 +8025,13 @@
         <v>7</v>
       </c>
       <c r="E135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -8122,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5" t="s">
@@ -8138,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -8146,13 +8069,13 @@
         <v>2</v>
       </c>
       <c r="E138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -8160,13 +8083,13 @@
         <v>3</v>
       </c>
       <c r="E139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -8180,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -8188,13 +8111,13 @@
         <v>5</v>
       </c>
       <c r="E141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -8202,13 +8125,16 @@
         <v>6</v>
       </c>
       <c r="E142" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G142" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -8222,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -8242,11 +8168,11 @@
       </c>
       <c r="E145">
         <f>SUM(E2:E144)</f>
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="F145">
         <f>(E145/E147)*100</f>
-        <v>87.2340425531915</v>
+        <v>99.290780141843967</v>
       </c>
     </row>
     <row r="146" spans="4:6" x14ac:dyDescent="0.2">
@@ -8255,11 +8181,11 @@
       </c>
       <c r="E146">
         <f>E147-E145</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F146">
         <f>(E146/E147)*100</f>
-        <v>12.76595744680851</v>
+        <v>0.70921985815602839</v>
       </c>
     </row>
     <row r="147" spans="4:6" x14ac:dyDescent="0.2">
@@ -8301,10 +8227,10 @@
     <mergeCell ref="C59:C64"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E144">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8314,10 +8240,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2057EC-805C-ED4B-B4A5-E261467E16E2}">
-  <dimension ref="A1:O447"/>
+  <dimension ref="A1:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8335,7 +8261,7 @@
     <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="28" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -8357,11 +8283,8 @@
         <v>29</v>
       </c>
       <c r="K1" s="41"/>
-      <c r="O1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>27</v>
       </c>
@@ -8391,25 +8314,22 @@
       </c>
       <c r="H2" s="23">
         <f>E13V!E145</f>
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="I2" s="21">
         <f>H2/H4</f>
-        <v>0.87234042553191493</v>
+        <v>0.99290780141843971</v>
       </c>
       <c r="J2" s="44">
         <f>(B2+D2+F2+H2)</f>
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="K2" s="42">
         <f>J2/J4</f>
-        <v>0.83101851851851849</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0.87037037037037035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -8439,25 +8359,22 @@
       </c>
       <c r="H3" s="29">
         <f>E13V!E146</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I3" s="27">
         <f>H3/H4</f>
-        <v>0.1276595744680851</v>
+        <v>7.0921985815602835E-3</v>
       </c>
       <c r="J3" s="45">
         <f>B3+D3+F3+H3</f>
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="K3" s="43">
         <f>J3/J4</f>
-        <v>0.16898148148148148</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0.12962962962962962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
@@ -8486,2371 +8403,433 @@
         <v>432</v>
       </c>
       <c r="K4" s="39"/>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H5" s="8"/>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F6" s="8"/>
       <c r="J6">
         <f>446-J4</f>
         <v>14</v>
       </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F8" s="8"/>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F9" s="8"/>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F10" s="8"/>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F11" s="8"/>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F12" s="8"/>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F13" s="8"/>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F14" s="8"/>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F15" s="8"/>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F16" s="8"/>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" s="8"/>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F18" s="8"/>
-      <c r="O18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F19" s="8"/>
-      <c r="O19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F20" s="8"/>
-      <c r="O20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F21" s="8"/>
-      <c r="O21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F22" s="8"/>
-      <c r="O22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F23" s="8"/>
-      <c r="O23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F24" s="8"/>
-      <c r="O24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F25" s="8"/>
-      <c r="O25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F26" s="8"/>
-      <c r="O26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F27" s="8"/>
-      <c r="O27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F28" s="8"/>
-      <c r="O28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F29" s="8"/>
-      <c r="O29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F30" s="8"/>
-      <c r="O30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F31" s="8"/>
-      <c r="O31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F32" s="8"/>
-      <c r="O32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F33" s="8"/>
-      <c r="O33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F34" s="8"/>
-      <c r="O34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F35" s="8"/>
-      <c r="O35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F36" s="8"/>
-      <c r="O36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F37" s="8"/>
-      <c r="O37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F38" s="8"/>
-      <c r="O38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F39" s="8"/>
-      <c r="O39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F40" s="8"/>
-      <c r="O40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F41" s="8"/>
-      <c r="O41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F42" s="8"/>
-      <c r="O42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F43" s="8"/>
-      <c r="O43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F44" s="8"/>
-      <c r="O44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F45" s="8"/>
-      <c r="O45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F46" s="8"/>
-      <c r="O46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F47" s="8"/>
-      <c r="O47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F48" s="8"/>
-      <c r="O48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F49" s="8"/>
-      <c r="O49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F50" s="8"/>
-      <c r="O50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F51" s="8"/>
-      <c r="O51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F52" s="8"/>
-      <c r="O52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F53" s="8"/>
-      <c r="O53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F54" s="8"/>
-      <c r="O54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F55" s="8"/>
-      <c r="O55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F56" s="8"/>
-      <c r="O56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F57" s="8"/>
-      <c r="O57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F58" s="8"/>
-      <c r="O58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F59" s="8"/>
-      <c r="O59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F60" s="8"/>
-      <c r="O60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F61" s="8"/>
-      <c r="O61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F62" s="8"/>
-      <c r="O62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63" s="8"/>
-      <c r="O63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F64" s="8"/>
-      <c r="O64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F65" s="8"/>
-      <c r="O65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F66" s="8"/>
-      <c r="O66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F67" s="8"/>
-      <c r="O67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F68" s="8"/>
-      <c r="O68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F69" s="8"/>
-      <c r="O69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F70" s="8"/>
-      <c r="O70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F71" s="8"/>
-      <c r="O71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F72" s="8"/>
-      <c r="O72" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F73" s="8"/>
-      <c r="O73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F74" s="8"/>
-      <c r="O74" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F75" s="8"/>
-      <c r="O75" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F76" s="8"/>
-      <c r="O76" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F77" s="8"/>
-      <c r="O77" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F78" s="8"/>
-      <c r="O78" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F79" s="8"/>
-      <c r="O79" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F80" s="8"/>
-      <c r="O80" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F81" s="8"/>
-      <c r="O81" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F82" s="8"/>
-      <c r="O82" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F83" s="8"/>
-      <c r="O83" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F84" s="8"/>
-      <c r="O84" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F85" s="8"/>
-      <c r="O85" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F86" s="8"/>
-      <c r="O86" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F87" s="8"/>
-      <c r="O87" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F88" s="8"/>
-      <c r="O88" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F89" s="8"/>
-      <c r="O89" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F90" s="8"/>
-      <c r="O90" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F91" s="8"/>
-      <c r="O91" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F92" s="8"/>
-      <c r="O92" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F93" s="8"/>
-      <c r="O93" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F94" s="8"/>
-      <c r="O94" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F95" s="8"/>
-      <c r="O95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F96" s="8"/>
-      <c r="O96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F97" s="8"/>
-      <c r="O97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F98" s="8"/>
-      <c r="O98" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F99" s="8"/>
-      <c r="O99" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F100" s="8"/>
-      <c r="O100" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F101" s="8"/>
-      <c r="O101" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F102" s="8"/>
-      <c r="O102" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F103" s="8"/>
-      <c r="O103" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F104" s="8"/>
-      <c r="O104" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F105" s="8"/>
-      <c r="O105" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F106" s="8"/>
-      <c r="O106" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F107" s="8"/>
-      <c r="O107" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F108" s="8"/>
-      <c r="O108" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F109" s="8"/>
-      <c r="O109" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F110" s="8"/>
-      <c r="O110" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F111" s="8"/>
-      <c r="O111" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F112" s="8"/>
-      <c r="O112" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F113" s="8"/>
-      <c r="O113" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F114" s="8"/>
-      <c r="O114" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F115" s="8"/>
-      <c r="O115" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F116" s="8"/>
-      <c r="O116" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F117" s="8"/>
-      <c r="O117" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F118" s="8"/>
-      <c r="O118" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F119" s="8"/>
-      <c r="O119" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F120" s="8"/>
-      <c r="O120" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F121" s="8"/>
-      <c r="O121" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F122" s="8"/>
-      <c r="O122" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F123" s="8"/>
-      <c r="O123" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F124" s="8"/>
-      <c r="O124" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F125" s="8"/>
-      <c r="O125" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F126" s="8"/>
-      <c r="O126" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F127" s="8"/>
-      <c r="O127" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F128" s="8"/>
-      <c r="O128" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F129" s="8"/>
-      <c r="O129" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F130" s="8"/>
-      <c r="O130" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F131" s="8"/>
-      <c r="O131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F132" s="8"/>
-      <c r="O132" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F133" s="8"/>
-      <c r="O133" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F134" s="8"/>
-      <c r="O134" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F135" s="8"/>
-      <c r="O135" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F136" s="8"/>
-      <c r="O136" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F137" s="8"/>
-      <c r="O137" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F138" s="8"/>
-      <c r="O138" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F139" s="8"/>
-      <c r="O139" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F140" s="8"/>
-      <c r="O140" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F141" s="8"/>
-      <c r="O141" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F142" s="8"/>
-      <c r="O142" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="6:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F143" s="8"/>
-      <c r="O143" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="O144" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O145" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O146" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O147" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O148" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O149" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O150" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O151" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O152" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O153" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O154" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O155" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O156" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O157" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O158" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O159" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O160" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O161" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O162" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O163" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O164" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O165" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O166" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O167" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O168" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O169" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O170" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O171" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O172" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O173" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O174" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O175" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O176" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O177" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O178" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O179" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O180" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O181" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O182" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O183" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O184" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O185" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O186" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O187" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O188" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O189" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O190" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O191" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O192" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O193" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O194" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O195" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O196" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O197" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O198" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O199" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O200" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O201" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O202" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O203" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O204" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O205" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O206" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O207" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O208" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O209" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O210" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O211" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O212" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O213" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O214" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O215" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O216" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O217" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O218" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O219" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O220" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O221" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O222" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O223" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O224" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O225" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O226" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O227" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O228" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O229" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O230" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O231" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O232" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O233" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O234" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O235" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O236" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O237" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O238" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O239" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O240" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O241" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O242" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O243" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O244" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O245" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O246" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O247" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O248" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O249" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O250" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O251" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O252" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O253" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O254" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O255" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O256" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O257" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O258" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O259" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O260" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O261" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O262" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O263" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O264" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O265" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O266" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O267" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O268" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O269" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O270" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O271" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O272" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O273" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O274" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O275" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O276" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O277" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O278" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O279" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O280" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O281" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O282" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O283" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O284" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O285" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O286" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O287" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O288" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O289" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O290" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O291" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O292" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O293" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O294" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O295" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O296" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O297" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O298" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O299" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O300" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O301" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O302" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O303" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O304" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O305" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O306" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O307" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O308" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O309" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O310" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O311" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O312" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O313" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O314" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O315" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O316" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O317" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O318" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O319" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O320" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O321" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O322" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O323" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O324" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O325" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O326" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O327" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O328" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O329" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O330" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O331" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O332" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O333" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O334" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O335" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O336" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O337" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O338" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O339" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O340" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O341" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O342" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O343" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O344" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O345" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O346" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O347" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O348" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O349" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O350" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O351" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O352" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O353" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O354" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O355" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O356" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O357" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O358" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O359" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O360" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O361" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O362" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O363" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O364" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O365" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O366" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O367" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O368" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O369" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O370" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O371" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O372" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O373" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O374" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O375" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O376" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O377" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O378" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O379" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O380" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O381" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O382" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O383" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O384" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O385" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O386" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O387" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O388" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O389" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O390" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O391" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O392" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O393" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O394" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O395" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O396" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O397" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O398" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O399" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O400" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O401" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O402" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="403" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O403" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="404" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O404" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O405" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="406" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O406" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O407" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O408" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O409" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O410" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="411" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O411" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O412" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O413" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="414" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O414" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O415" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O416" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O417" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O418" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O419" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O420" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O421" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O422" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O423" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O424" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O425" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O426" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O427" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O428" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O429" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O430" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O431" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O432" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O433" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O434" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O435" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O436" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O437" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O438" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O439" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O440" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O441" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O442" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O443" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O444" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O445" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O446" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="447" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O447">
-        <f>SUM(O1:O446)</f>
-        <v>446</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10861,38 +8840,6 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J4:K4"/>
   </mergeCells>
-  <conditionalFormatting sqref="O1:O110">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O111:O193">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O194:O303">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O304:O446">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sample_status.xlsx
+++ b/sample_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zabdi/Documents/GitHub/fellowship-of-the-growth-rings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08698B5-FE9A-7343-9955-BEFD33AC81C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A498DE-34AC-4F4E-A339-47D059E9FCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="1060" windowWidth="28040" windowHeight="16940" activeTab="4" xr2:uid="{9440439D-72F5-B441-976E-5500384619B7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="32">
   <si>
     <t>SITE</t>
   </si>
@@ -6070,7 +6070,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8142,7 +8142,7 @@
         <v>7</v>
       </c>
       <c r="E143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" s="1">
         <v>0</v>
@@ -8168,11 +8168,11 @@
       </c>
       <c r="E145">
         <f>SUM(E2:E144)</f>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F145">
         <f>(E145/E147)*100</f>
-        <v>99.290780141843967</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="4:6" x14ac:dyDescent="0.2">
@@ -8181,11 +8181,11 @@
       </c>
       <c r="E146">
         <f>E147-E145</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
         <f>(E146/E147)*100</f>
-        <v>0.70921985815602839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="4:6" x14ac:dyDescent="0.2">
@@ -8243,7 +8243,7 @@
   <dimension ref="A1:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8256,7 +8256,7 @@
     <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -8314,19 +8314,19 @@
       </c>
       <c r="H2" s="23">
         <f>E13V!E145</f>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I2" s="21">
         <f>H2/H4</f>
-        <v>0.99290780141843971</v>
+        <v>1</v>
       </c>
       <c r="J2" s="44">
         <f>(B2+D2+F2+H2)</f>
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K2" s="42">
         <f>J2/J4</f>
-        <v>0.87037037037037035</v>
+        <v>0.87268518518518523</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28" thickBot="1" x14ac:dyDescent="0.4">
@@ -8359,19 +8359,19 @@
       </c>
       <c r="H3" s="29">
         <f>E13V!E146</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="27">
         <f>H3/H4</f>
-        <v>7.0921985815602835E-3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="45">
         <f>B3+D3+F3+H3</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K3" s="43">
         <f>J3/J4</f>
-        <v>0.12962962962962962</v>
+        <v>0.12731481481481483</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28" thickBot="1" x14ac:dyDescent="0.4">
@@ -8431,6 +8431,9 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F10" s="8"/>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F11" s="8"/>

--- a/sample_status.xlsx
+++ b/sample_status.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zabdi/Documents/GitHub/fellowship-of-the-growth-rings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0F0F80-6887-C347-9706-C905C1EB1AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89ECE22-9A79-7045-B8C9-712F513AD59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{9440439D-72F5-B441-976E-5500384619B7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9440439D-72F5-B441-976E-5500384619B7}"/>
   </bookViews>
   <sheets>
     <sheet name="E13A" sheetId="1" r:id="rId1"/>
     <sheet name="E13C" sheetId="2" r:id="rId2"/>
     <sheet name="E13D" sheetId="3" r:id="rId3"/>
     <sheet name="E13V" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="summary" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -108,9 +108,6 @@
     <t>done</t>
   </si>
   <si>
-    <t>un workable</t>
-  </si>
-  <si>
     <t>worked</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>frost (2006)</t>
+  </si>
+  <si>
+    <t>unworkable</t>
   </si>
 </sst>
 </file>
@@ -1079,9 +1079,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26849EF7-B10C-1B40-A287-E6A20CFDF58E}">
   <dimension ref="A1:AD569"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:AD1"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1119,7 +1119,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="46">
         <v>2000</v>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="AC1" s="46"/>
       <c r="AD1" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.2">
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.2">
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.2">
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.2">
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H69" s="1">
         <v>0</v>
@@ -9606,7 +9606,7 @@
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D112" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E112" s="1">
         <f>SUM(E2:E111)</f>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -13137,7 +13137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22AE6DC-FDE9-0640-9C1E-562AC01C9AB6}">
   <dimension ref="A1:AD147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B93" sqref="B93:AB144"/>
     </sheetView>
@@ -13175,7 +13175,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="46">
         <v>2000</v>
@@ -13242,7 +13242,7 @@
       </c>
       <c r="AC1" s="46"/>
       <c r="AD1" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -17574,7 +17574,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.2">
@@ -18403,7 +18403,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.2">
@@ -24519,7 +24519,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -24930,7 +24930,7 @@
   <dimension ref="A1:K143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24967,13 +24967,13 @@
       </c>
       <c r="I1" s="41"/>
       <c r="J1" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="11">
         <f>E13A!E112</f>
@@ -25018,7 +25018,7 @@
     </row>
     <row r="3" spans="1:11" ht="28" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="17">
         <f>E13A!E113</f>
@@ -25063,7 +25063,7 @@
     </row>
     <row r="4" spans="1:11" ht="28" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="22">
         <f>E13A!E114</f>
@@ -25103,7 +25103,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="7"/>
       <c r="J7">
